--- a/backend/Consulta2.xlsx
+++ b/backend/Consulta2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Espina\Desktop\Compiladores 2\OLC2-Coronavirus-Data-Analysis-With-Machine-Learning\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EB06A6-7844-4D42-BC12-39BF2BEB3EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D63D59-BFB9-49A2-B5CE-F60DE422A778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{509D8F0D-7B5E-44D0-BC14-972074DCFF11}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="198">
   <si>
     <t>Infectados</t>
   </si>
@@ -611,13 +611,28 @@
   </si>
   <si>
     <t>EL RODEO</t>
+  </si>
+  <si>
+    <t>Vacunados</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,12 +651,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFD19A66"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFABB2BF"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -671,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -680,9 +689,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0982241F-302C-4A7E-BFE3-35BF9F97BC01}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="M165" sqref="M165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1019,7 @@
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1032,8 +1038,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1052,15 +1070,27 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2">
@@ -1072,15 +1102,27 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
@@ -1092,15 +1134,27 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2">
@@ -1112,9 +1166,20 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1133,10 +1198,21 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1155,8 +1231,20 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1175,8 +1263,20 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1195,8 +1295,20 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1215,8 +1327,20 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>48</v>
+      </c>
+      <c r="H10">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1235,8 +1359,20 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1255,8 +1391,20 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1275,8 +1423,20 @@
       <c r="F13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1295,8 +1455,20 @@
       <c r="F14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1315,8 +1487,20 @@
       <c r="F15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1335,8 +1519,20 @@
       <c r="F16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>255</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1355,8 +1551,20 @@
       <c r="F17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>300</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1375,8 +1583,20 @@
       <c r="F18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>350</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1395,8 +1615,20 @@
       <c r="F19">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>400</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1415,8 +1647,20 @@
       <c r="F20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>450</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1435,8 +1679,20 @@
       <c r="F21">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>500</v>
+      </c>
+      <c r="H21" s="1">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1455,8 +1711,20 @@
       <c r="F22">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>395</v>
+      </c>
+      <c r="H22" s="1">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1475,8 +1743,20 @@
       <c r="F23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>419</v>
+      </c>
+      <c r="H23" s="1">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1495,8 +1775,20 @@
       <c r="F24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>443</v>
+      </c>
+      <c r="H24" s="1">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1515,8 +1807,20 @@
       <c r="F25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>468</v>
+      </c>
+      <c r="H25" s="1">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1535,8 +1839,20 @@
       <c r="F26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>492</v>
+      </c>
+      <c r="H26" s="1">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1">
+        <v>41</v>
+      </c>
+      <c r="J26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1555,8 +1871,20 @@
       <c r="F27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>516</v>
+      </c>
+      <c r="H27" s="1">
+        <v>41</v>
+      </c>
+      <c r="I27" s="1">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1575,8 +1903,20 @@
       <c r="F28">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>540</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1595,8 +1935,20 @@
       <c r="F29">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>564</v>
+      </c>
+      <c r="H29" s="1">
+        <v>69</v>
+      </c>
+      <c r="I29" s="1">
+        <v>89</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1615,8 +1967,20 @@
       <c r="F30">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>588</v>
+      </c>
+      <c r="H30" s="1">
+        <v>89</v>
+      </c>
+      <c r="I30" s="1">
+        <v>117</v>
+      </c>
+      <c r="J30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1635,8 +1999,20 @@
       <c r="F31">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>612</v>
+      </c>
+      <c r="H31" s="1">
+        <v>117</v>
+      </c>
+      <c r="I31" s="1">
+        <v>134</v>
+      </c>
+      <c r="J31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1655,8 +2031,20 @@
       <c r="F32">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>637</v>
+      </c>
+      <c r="H32" s="1">
+        <v>134</v>
+      </c>
+      <c r="I32" s="1">
+        <v>158</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1675,8 +2063,20 @@
       <c r="F33">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>661</v>
+      </c>
+      <c r="H33" s="1">
+        <v>158</v>
+      </c>
+      <c r="I33" s="1">
+        <v>177</v>
+      </c>
+      <c r="J33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1695,8 +2095,20 @@
       <c r="F34">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>685</v>
+      </c>
+      <c r="H34" s="1">
+        <v>177</v>
+      </c>
+      <c r="I34" s="1">
+        <v>201</v>
+      </c>
+      <c r="J34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1715,8 +2127,20 @@
       <c r="F35">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>709</v>
+      </c>
+      <c r="H35" s="1">
+        <v>201</v>
+      </c>
+      <c r="I35" s="1">
+        <v>231</v>
+      </c>
+      <c r="J35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1735,8 +2159,20 @@
       <c r="F36">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>733</v>
+      </c>
+      <c r="H36" s="1">
+        <v>231</v>
+      </c>
+      <c r="I36" s="1">
+        <v>263</v>
+      </c>
+      <c r="J36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1755,8 +2191,20 @@
       <c r="F37">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>757</v>
+      </c>
+      <c r="H37" s="1">
+        <v>263</v>
+      </c>
+      <c r="I37" s="1">
+        <v>295</v>
+      </c>
+      <c r="J37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1775,8 +2223,20 @@
       <c r="F38">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>782</v>
+      </c>
+      <c r="H38" s="1">
+        <v>295</v>
+      </c>
+      <c r="I38" s="1">
+        <v>314</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1795,8 +2255,20 @@
       <c r="F39">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>806</v>
+      </c>
+      <c r="H39" s="1">
+        <v>314</v>
+      </c>
+      <c r="I39" s="1">
+        <v>330</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1815,8 +2287,20 @@
       <c r="F40">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>830</v>
+      </c>
+      <c r="H40" s="1">
+        <v>330</v>
+      </c>
+      <c r="I40" s="1">
+        <v>347</v>
+      </c>
+      <c r="J40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1835,8 +2319,20 @@
       <c r="F41">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>854</v>
+      </c>
+      <c r="H41" s="1">
+        <v>347</v>
+      </c>
+      <c r="I41" s="1">
+        <v>375</v>
+      </c>
+      <c r="J41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1855,8 +2351,20 @@
       <c r="F42">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>878</v>
+      </c>
+      <c r="H42" s="1">
+        <v>375</v>
+      </c>
+      <c r="I42" s="1">
+        <v>396</v>
+      </c>
+      <c r="J42">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1875,8 +2383,20 @@
       <c r="F43">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>902</v>
+      </c>
+      <c r="H43" s="1">
+        <v>396</v>
+      </c>
+      <c r="I43" s="1">
+        <v>416</v>
+      </c>
+      <c r="J43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1895,8 +2415,20 @@
       <c r="F44">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>927</v>
+      </c>
+      <c r="H44" s="1">
+        <v>416</v>
+      </c>
+      <c r="I44" s="1">
+        <v>435</v>
+      </c>
+      <c r="J44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1915,8 +2447,20 @@
       <c r="F45">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>951</v>
+      </c>
+      <c r="H45" s="1">
+        <v>435</v>
+      </c>
+      <c r="I45" s="1">
+        <v>454</v>
+      </c>
+      <c r="J45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1935,9 +2479,20 @@
       <c r="F46">
         <v>82</v>
       </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>975</v>
+      </c>
+      <c r="H46" s="1">
+        <v>454</v>
+      </c>
+      <c r="I46" s="1">
+        <v>467</v>
+      </c>
+      <c r="J46" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1956,8 +2511,20 @@
       <c r="F47">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>467</v>
+      </c>
+      <c r="I47" s="1">
+        <v>483</v>
+      </c>
+      <c r="J47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1976,8 +2543,20 @@
       <c r="F48">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1023</v>
+      </c>
+      <c r="H48" s="1">
+        <v>483</v>
+      </c>
+      <c r="I48" s="1">
+        <v>502</v>
+      </c>
+      <c r="J48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1996,8 +2575,20 @@
       <c r="F49">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>1047</v>
+      </c>
+      <c r="H49" s="1">
+        <v>502</v>
+      </c>
+      <c r="I49" s="1">
+        <v>539</v>
+      </c>
+      <c r="J49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -2016,8 +2607,20 @@
       <c r="F50">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1071</v>
+      </c>
+      <c r="H50" s="1">
+        <v>539</v>
+      </c>
+      <c r="I50" s="1">
+        <v>558</v>
+      </c>
+      <c r="J50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2036,8 +2639,20 @@
       <c r="F51">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1096</v>
+      </c>
+      <c r="H51" s="1">
+        <v>558</v>
+      </c>
+      <c r="I51" s="1">
+        <v>577</v>
+      </c>
+      <c r="J51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2056,8 +2671,20 @@
       <c r="F52">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>1120</v>
+      </c>
+      <c r="H52" s="1">
+        <v>577</v>
+      </c>
+      <c r="I52" s="1">
+        <v>595</v>
+      </c>
+      <c r="J52">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2076,8 +2703,20 @@
       <c r="F53">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>1144</v>
+      </c>
+      <c r="H53" s="1">
+        <v>595</v>
+      </c>
+      <c r="I53" s="1">
+        <v>612</v>
+      </c>
+      <c r="J53">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2096,8 +2735,20 @@
       <c r="F54">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>1168</v>
+      </c>
+      <c r="H54" s="1">
+        <v>612</v>
+      </c>
+      <c r="I54" s="1">
+        <v>618</v>
+      </c>
+      <c r="J54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2116,8 +2767,20 @@
       <c r="F55">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1192</v>
+      </c>
+      <c r="H55" s="1">
+        <v>618</v>
+      </c>
+      <c r="I55" s="1">
+        <v>626</v>
+      </c>
+      <c r="J55">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -2136,8 +2799,20 @@
       <c r="F56">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1216</v>
+      </c>
+      <c r="H56" s="1">
+        <v>626</v>
+      </c>
+      <c r="I56" s="1">
+        <v>642</v>
+      </c>
+      <c r="J56">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2156,8 +2831,20 @@
       <c r="F57">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>1241</v>
+      </c>
+      <c r="H57" s="1">
+        <v>642</v>
+      </c>
+      <c r="I57" s="1">
+        <v>649</v>
+      </c>
+      <c r="J57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -2176,8 +2863,20 @@
       <c r="F58">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1265</v>
+      </c>
+      <c r="H58" s="1">
+        <v>649</v>
+      </c>
+      <c r="I58" s="1">
+        <v>655</v>
+      </c>
+      <c r="J58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2196,8 +2895,20 @@
       <c r="F59">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1289</v>
+      </c>
+      <c r="H59" s="1">
+        <v>655</v>
+      </c>
+      <c r="I59" s="1">
+        <v>660</v>
+      </c>
+      <c r="J59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2216,8 +2927,20 @@
       <c r="F60">
         <v>142</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>1313</v>
+      </c>
+      <c r="H60" s="1">
+        <v>660</v>
+      </c>
+      <c r="I60" s="1">
+        <v>662</v>
+      </c>
+      <c r="J60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2236,8 +2959,20 @@
       <c r="F61">
         <v>146</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>1337</v>
+      </c>
+      <c r="H61" s="1">
+        <v>662</v>
+      </c>
+      <c r="I61" s="1">
+        <v>669</v>
+      </c>
+      <c r="J61">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -2256,8 +2991,20 @@
       <c r="F62">
         <v>147</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>1361</v>
+      </c>
+      <c r="H62" s="1">
+        <v>669</v>
+      </c>
+      <c r="I62" s="1">
+        <v>681</v>
+      </c>
+      <c r="J62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2276,8 +3023,20 @@
       <c r="F63">
         <v>151</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>1386</v>
+      </c>
+      <c r="H63" s="1">
+        <v>681</v>
+      </c>
+      <c r="I63" s="1">
+        <v>686</v>
+      </c>
+      <c r="J63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -2296,8 +3055,20 @@
       <c r="F64">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>1410</v>
+      </c>
+      <c r="H64" s="1">
+        <v>686</v>
+      </c>
+      <c r="I64" s="1">
+        <v>687</v>
+      </c>
+      <c r="J64">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -2316,8 +3087,20 @@
       <c r="F65">
         <v>167</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1434</v>
+      </c>
+      <c r="H65" s="1">
+        <v>687</v>
+      </c>
+      <c r="I65" s="1">
+        <v>693</v>
+      </c>
+      <c r="J65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -2336,8 +3119,20 @@
       <c r="F66">
         <v>174</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>1458</v>
+      </c>
+      <c r="H66" s="1">
+        <v>693</v>
+      </c>
+      <c r="I66" s="1">
+        <v>695</v>
+      </c>
+      <c r="J66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2356,8 +3151,20 @@
       <c r="F67">
         <v>180</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>1482</v>
+      </c>
+      <c r="H67" s="1">
+        <v>695</v>
+      </c>
+      <c r="I67" s="1">
+        <v>697</v>
+      </c>
+      <c r="J67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2376,8 +3183,20 @@
       <c r="F68">
         <v>182</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>1506</v>
+      </c>
+      <c r="H68" s="1">
+        <v>697</v>
+      </c>
+      <c r="I68" s="1">
+        <v>705</v>
+      </c>
+      <c r="J68">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2396,8 +3215,20 @@
       <c r="F69">
         <v>188</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>1530</v>
+      </c>
+      <c r="H69" s="1">
+        <v>705</v>
+      </c>
+      <c r="I69" s="1">
+        <v>713</v>
+      </c>
+      <c r="J69">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -2416,8 +3247,20 @@
       <c r="F70">
         <v>194</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>1555</v>
+      </c>
+      <c r="H70" s="1">
+        <v>713</v>
+      </c>
+      <c r="I70" s="1">
+        <v>719</v>
+      </c>
+      <c r="J70">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2436,8 +3279,20 @@
       <c r="F71">
         <v>196</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1579</v>
+      </c>
+      <c r="H71" s="1">
+        <v>719</v>
+      </c>
+      <c r="I71" s="1">
+        <v>725</v>
+      </c>
+      <c r="J71">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -2456,8 +3311,20 @@
       <c r="F72">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>1603</v>
+      </c>
+      <c r="H72" s="1">
+        <v>725</v>
+      </c>
+      <c r="I72" s="1">
+        <v>733</v>
+      </c>
+      <c r="J72">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -2476,8 +3343,20 @@
       <c r="F73">
         <v>201</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>1627</v>
+      </c>
+      <c r="H73" s="1">
+        <v>733</v>
+      </c>
+      <c r="I73" s="1">
+        <v>739</v>
+      </c>
+      <c r="J73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -2496,8 +3375,20 @@
       <c r="F74">
         <v>212</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>1651</v>
+      </c>
+      <c r="H74" s="1">
+        <v>739</v>
+      </c>
+      <c r="I74" s="1">
+        <v>742</v>
+      </c>
+      <c r="J74">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2516,8 +3407,20 @@
       <c r="F75">
         <v>217</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>1675</v>
+      </c>
+      <c r="H75" s="1">
+        <v>742</v>
+      </c>
+      <c r="I75" s="1">
+        <v>755</v>
+      </c>
+      <c r="J75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2536,8 +3439,20 @@
       <c r="F76">
         <v>225</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>1700</v>
+      </c>
+      <c r="H76" s="1">
+        <v>755</v>
+      </c>
+      <c r="I76" s="1">
+        <v>761</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -2556,8 +3471,20 @@
       <c r="F77">
         <v>234</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>1724</v>
+      </c>
+      <c r="H77" s="1">
+        <v>761</v>
+      </c>
+      <c r="I77" s="1">
+        <v>765</v>
+      </c>
+      <c r="J77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -2576,8 +3503,20 @@
       <c r="F78">
         <v>243</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>1748</v>
+      </c>
+      <c r="H78" s="1">
+        <v>765</v>
+      </c>
+      <c r="I78" s="1">
+        <v>773</v>
+      </c>
+      <c r="J78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2596,8 +3535,20 @@
       <c r="F79">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>1772</v>
+      </c>
+      <c r="H79" s="1">
+        <v>773</v>
+      </c>
+      <c r="I79" s="1">
+        <v>780</v>
+      </c>
+      <c r="J79">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -2616,8 +3567,20 @@
       <c r="F80">
         <v>250</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>1796</v>
+      </c>
+      <c r="H80" s="1">
+        <v>780</v>
+      </c>
+      <c r="I80" s="1">
+        <v>792</v>
+      </c>
+      <c r="J80">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2636,8 +3599,20 @@
       <c r="F81">
         <v>258</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>1820</v>
+      </c>
+      <c r="H81" s="1">
+        <v>792</v>
+      </c>
+      <c r="I81" s="1">
+        <v>801</v>
+      </c>
+      <c r="J81">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -2656,8 +3631,20 @@
       <c r="F82">
         <v>262</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>1845</v>
+      </c>
+      <c r="H82" s="1">
+        <v>801</v>
+      </c>
+      <c r="I82" s="1">
+        <v>804</v>
+      </c>
+      <c r="J82">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -2676,8 +3663,20 @@
       <c r="F83">
         <v>271</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>1869</v>
+      </c>
+      <c r="H83" s="1">
+        <v>804</v>
+      </c>
+      <c r="I83" s="1">
+        <v>815</v>
+      </c>
+      <c r="J83">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -2696,8 +3695,20 @@
       <c r="F84">
         <v>290</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>1893</v>
+      </c>
+      <c r="H84" s="1">
+        <v>815</v>
+      </c>
+      <c r="I84" s="1">
+        <v>830</v>
+      </c>
+      <c r="J84">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -2716,8 +3727,20 @@
       <c r="F85">
         <v>294</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>1917</v>
+      </c>
+      <c r="H85" s="1">
+        <v>830</v>
+      </c>
+      <c r="I85" s="1">
+        <v>843</v>
+      </c>
+      <c r="J85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -2736,8 +3759,20 @@
       <c r="F86">
         <v>306</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1941</v>
+      </c>
+      <c r="H86" s="1">
+        <v>843</v>
+      </c>
+      <c r="I86" s="1">
+        <v>853</v>
+      </c>
+      <c r="J86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -2756,8 +3791,20 @@
       <c r="F87">
         <v>310</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>1965</v>
+      </c>
+      <c r="H87" s="1">
+        <v>853</v>
+      </c>
+      <c r="I87" s="1">
+        <v>863</v>
+      </c>
+      <c r="J87">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -2776,8 +3823,20 @@
       <c r="F88">
         <v>312</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>1989</v>
+      </c>
+      <c r="H88" s="1">
+        <v>863</v>
+      </c>
+      <c r="I88" s="1">
+        <v>866</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -2796,8 +3855,20 @@
       <c r="F89">
         <v>322</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>2014</v>
+      </c>
+      <c r="H89" s="1">
+        <v>866</v>
+      </c>
+      <c r="I89" s="1">
+        <v>882</v>
+      </c>
+      <c r="J89">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -2816,8 +3887,20 @@
       <c r="F90">
         <v>330</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>2038</v>
+      </c>
+      <c r="H90" s="1">
+        <v>882</v>
+      </c>
+      <c r="I90" s="1">
+        <v>897</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -2836,8 +3919,20 @@
       <c r="F91">
         <v>336</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>2062</v>
+      </c>
+      <c r="H91" s="1">
+        <v>897</v>
+      </c>
+      <c r="I91" s="1">
+        <v>903</v>
+      </c>
+      <c r="J91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -2856,8 +3951,20 @@
       <c r="F92">
         <v>343</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>2086</v>
+      </c>
+      <c r="H92" s="1">
+        <v>903</v>
+      </c>
+      <c r="I92" s="1">
+        <v>911</v>
+      </c>
+      <c r="J92">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -2876,8 +3983,20 @@
       <c r="F93">
         <v>349</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>2110</v>
+      </c>
+      <c r="H93" s="1">
+        <v>911</v>
+      </c>
+      <c r="I93" s="1">
+        <v>918</v>
+      </c>
+      <c r="J93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -2896,8 +4015,20 @@
       <c r="F94">
         <v>358</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>2134</v>
+      </c>
+      <c r="H94" s="1">
+        <v>918</v>
+      </c>
+      <c r="I94" s="1">
+        <v>930</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -2916,8 +4047,20 @@
       <c r="F95">
         <v>363</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>2159</v>
+      </c>
+      <c r="H95" s="1">
+        <v>930</v>
+      </c>
+      <c r="I95" s="1">
+        <v>951</v>
+      </c>
+      <c r="J95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -2936,8 +4079,20 @@
       <c r="F96">
         <v>395</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>2183</v>
+      </c>
+      <c r="H96" s="1">
+        <v>951</v>
+      </c>
+      <c r="I96" s="1">
+        <v>956</v>
+      </c>
+      <c r="J96">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -2956,8 +4111,20 @@
       <c r="F97">
         <v>405</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>2207</v>
+      </c>
+      <c r="H97" s="1">
+        <v>956</v>
+      </c>
+      <c r="I97" s="1">
+        <v>984</v>
+      </c>
+      <c r="J97">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -2976,8 +4143,20 @@
       <c r="F98">
         <v>417</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>2231</v>
+      </c>
+      <c r="H98" s="1">
+        <v>984</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -2996,8 +4175,20 @@
       <c r="F99">
         <v>426</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>2255</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1022</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -3016,8 +4207,20 @@
       <c r="F100">
         <v>471</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>2279</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1022</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1047</v>
+      </c>
+      <c r="J100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -3036,8 +4239,20 @@
       <c r="F101">
         <v>479</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>2304</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1047</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1056</v>
+      </c>
+      <c r="J101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -3056,8 +4271,20 @@
       <c r="F102">
         <v>479</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>2328</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1056</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1084</v>
+      </c>
+      <c r="J102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -3076,8 +4303,20 @@
       <c r="F103">
         <v>485</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>2352</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1084</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1105</v>
+      </c>
+      <c r="J103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -3096,8 +4335,20 @@
       <c r="F104">
         <v>497</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>2376</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1105</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1157</v>
+      </c>
+      <c r="J104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -3116,8 +4367,20 @@
       <c r="F105">
         <v>542</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>2400</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1157</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1194</v>
+      </c>
+      <c r="J105">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -3136,8 +4399,20 @@
       <c r="F106">
         <v>591</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>2424</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1194</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1228</v>
+      </c>
+      <c r="J106">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -3156,8 +4431,20 @@
       <c r="F107">
         <v>605</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>2448</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1228</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1263</v>
+      </c>
+      <c r="J107">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -3176,8 +4463,20 @@
       <c r="F108">
         <v>629</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>2473</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1263</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1318</v>
+      </c>
+      <c r="J108">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -3196,8 +4495,20 @@
       <c r="F109">
         <v>623</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>2497</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1318</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1342</v>
+      </c>
+      <c r="J109">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -3216,8 +4527,20 @@
       <c r="F110">
         <v>656</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>2521</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1342</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1375</v>
+      </c>
+      <c r="J110">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3236,8 +4559,20 @@
       <c r="F111">
         <v>677</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>2545</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1375</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1461</v>
+      </c>
+      <c r="J111">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3256,8 +4591,20 @@
       <c r="F112">
         <v>694</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>2569</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1461</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1538</v>
+      </c>
+      <c r="J112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -3276,8 +4623,20 @@
       <c r="F113">
         <v>704</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>2593</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1538</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1612</v>
+      </c>
+      <c r="J113">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -3296,8 +4655,20 @@
       <c r="F114">
         <v>750</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>2618</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1612</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1662</v>
+      </c>
+      <c r="J114">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -3316,8 +4687,20 @@
       <c r="F115">
         <v>771</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>2642</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1662</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1715</v>
+      </c>
+      <c r="J115">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -3336,8 +4719,20 @@
       <c r="F116">
         <v>774</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>2666</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1715</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1744</v>
+      </c>
+      <c r="J116">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -3356,8 +4751,20 @@
       <c r="F117">
         <v>789</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>2690</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1744</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1796</v>
+      </c>
+      <c r="J117">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -3376,8 +4783,20 @@
       <c r="F118">
         <v>771</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>2714</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1796</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1871</v>
+      </c>
+      <c r="J118">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -3396,8 +4815,20 @@
       <c r="F119">
         <v>774</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>2738</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1871</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1939</v>
+      </c>
+      <c r="J119">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -3416,8 +4847,20 @@
       <c r="F120">
         <v>789</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>2763</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1939</v>
+      </c>
+      <c r="I120" s="1">
+        <v>2058</v>
+      </c>
+      <c r="J120">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -3436,8 +4879,20 @@
       <c r="F121">
         <v>807</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>2787</v>
+      </c>
+      <c r="H121" s="1">
+        <v>2058</v>
+      </c>
+      <c r="I121" s="1">
+        <v>2127</v>
+      </c>
+      <c r="J121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -3456,8 +4911,20 @@
       <c r="F122">
         <v>825</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>2811</v>
+      </c>
+      <c r="H122" s="1">
+        <v>2127</v>
+      </c>
+      <c r="I122" s="1">
+        <v>2213</v>
+      </c>
+      <c r="J122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -3476,8 +4943,20 @@
       <c r="F123">
         <v>835</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>2835</v>
+      </c>
+      <c r="H123" s="1">
+        <v>2213</v>
+      </c>
+      <c r="I123" s="1">
+        <v>2277</v>
+      </c>
+      <c r="J123">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -3496,8 +4975,20 @@
       <c r="F124">
         <v>857</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>2859</v>
+      </c>
+      <c r="H124" s="1">
+        <v>2277</v>
+      </c>
+      <c r="I124" s="1">
+        <v>2368</v>
+      </c>
+      <c r="J124">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -3516,8 +5007,20 @@
       <c r="F125">
         <v>891</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>2883</v>
+      </c>
+      <c r="H125" s="1">
+        <v>2368</v>
+      </c>
+      <c r="I125" s="1">
+        <v>2515</v>
+      </c>
+      <c r="J125">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -3536,8 +5039,20 @@
       <c r="F126">
         <v>900</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>2907</v>
+      </c>
+      <c r="H126" s="1">
+        <v>2515</v>
+      </c>
+      <c r="I126" s="1">
+        <v>2684</v>
+      </c>
+      <c r="J126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -3556,8 +5071,20 @@
       <c r="F127">
         <v>935</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>2932</v>
+      </c>
+      <c r="H127" s="1">
+        <v>2684</v>
+      </c>
+      <c r="I127" s="1">
+        <v>2836</v>
+      </c>
+      <c r="J127">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -3576,8 +5103,20 @@
       <c r="F128">
         <v>988</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>2956</v>
+      </c>
+      <c r="H128" s="1">
+        <v>2836</v>
+      </c>
+      <c r="I128" s="1">
+        <v>2979</v>
+      </c>
+      <c r="J128">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -3596,8 +5135,20 @@
       <c r="F129">
         <v>1006</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>2980</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2979</v>
+      </c>
+      <c r="I129" s="1">
+        <v>3130</v>
+      </c>
+      <c r="J129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -3616,8 +5167,20 @@
       <c r="F130">
         <v>1011</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>3004</v>
+      </c>
+      <c r="H130" s="1">
+        <v>3130</v>
+      </c>
+      <c r="I130" s="1">
+        <v>3269</v>
+      </c>
+      <c r="J130">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -3636,8 +5199,20 @@
       <c r="F131">
         <v>1061</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>3028</v>
+      </c>
+      <c r="H131" s="1">
+        <v>3269</v>
+      </c>
+      <c r="I131" s="1">
+        <v>3459</v>
+      </c>
+      <c r="J131">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -3656,8 +5231,20 @@
       <c r="F132">
         <v>1098</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>3052</v>
+      </c>
+      <c r="H132" s="1">
+        <v>3459</v>
+      </c>
+      <c r="I132" s="1">
+        <v>3753</v>
+      </c>
+      <c r="J132">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -3676,8 +5263,20 @@
       <c r="F133">
         <v>1116</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>3077</v>
+      </c>
+      <c r="H133" s="1">
+        <v>3753</v>
+      </c>
+      <c r="I133" s="1">
+        <v>4023</v>
+      </c>
+      <c r="J133">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -3696,8 +5295,20 @@
       <c r="F134">
         <v>1166</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>3101</v>
+      </c>
+      <c r="H134" s="1">
+        <v>4023</v>
+      </c>
+      <c r="I134" s="1">
+        <v>4311</v>
+      </c>
+      <c r="J134">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -3716,8 +5327,20 @@
       <c r="F135">
         <v>1214</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>3125</v>
+      </c>
+      <c r="H135" s="1">
+        <v>4311</v>
+      </c>
+      <c r="I135" s="1">
+        <v>4621</v>
+      </c>
+      <c r="J135">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -3736,8 +5359,20 @@
       <c r="F136">
         <v>1259</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>3149</v>
+      </c>
+      <c r="H136" s="1">
+        <v>4621</v>
+      </c>
+      <c r="I136" s="1">
+        <v>4996</v>
+      </c>
+      <c r="J136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -3756,8 +5391,20 @@
       <c r="F137">
         <v>1312</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>3173</v>
+      </c>
+      <c r="H137" s="1">
+        <v>4996</v>
+      </c>
+      <c r="I137" s="1">
+        <v>5241</v>
+      </c>
+      <c r="J137">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -3776,8 +5423,20 @@
       <c r="F138">
         <v>1337</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>3197</v>
+      </c>
+      <c r="H138" s="1">
+        <v>5241</v>
+      </c>
+      <c r="I138" s="1">
+        <v>5486</v>
+      </c>
+      <c r="J138">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -3796,8 +5455,20 @@
       <c r="F139">
         <v>1368</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>3222</v>
+      </c>
+      <c r="H139" s="1">
+        <v>5486</v>
+      </c>
+      <c r="I139" s="1">
+        <v>5836</v>
+      </c>
+      <c r="J139">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -3816,8 +5487,20 @@
       <c r="F140">
         <v>1377</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>3246</v>
+      </c>
+      <c r="H140" s="1">
+        <v>5836</v>
+      </c>
+      <c r="I140" s="1">
+        <v>6485</v>
+      </c>
+      <c r="J140">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -3836,8 +5519,20 @@
       <c r="F141">
         <v>1384</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>3270</v>
+      </c>
+      <c r="H141" s="1">
+        <v>6485</v>
+      </c>
+      <c r="I141" s="1">
+        <v>6845</v>
+      </c>
+      <c r="J141">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -3856,9 +5551,21 @@
       <c r="F142">
         <v>1400</v>
       </c>
-      <c r="J142" s="4"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>3294</v>
+      </c>
+      <c r="H142" s="1">
+        <v>6845</v>
+      </c>
+      <c r="I142" s="1">
+        <v>7231</v>
+      </c>
+      <c r="J142">
+        <v>25</v>
+      </c>
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -3877,8 +5584,20 @@
       <c r="F143">
         <v>1423</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>3318</v>
+      </c>
+      <c r="H143" s="1">
+        <v>7231</v>
+      </c>
+      <c r="I143" s="1">
+        <v>7596</v>
+      </c>
+      <c r="J143">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -3897,8 +5616,20 @@
       <c r="F144">
         <v>1446</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>3342</v>
+      </c>
+      <c r="H144" s="1">
+        <v>7596</v>
+      </c>
+      <c r="I144" s="1">
+        <v>8036</v>
+      </c>
+      <c r="J144">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -3917,8 +5648,20 @@
       <c r="F145">
         <v>1465</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>3366</v>
+      </c>
+      <c r="H145" s="1">
+        <v>8036</v>
+      </c>
+      <c r="I145" s="1">
+        <v>8482</v>
+      </c>
+      <c r="J145">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -3937,8 +5680,20 @@
       <c r="F146">
         <v>1476</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>3391</v>
+      </c>
+      <c r="H146" s="1">
+        <v>8482</v>
+      </c>
+      <c r="I146" s="1">
+        <v>8986</v>
+      </c>
+      <c r="J146">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -3957,8 +5712,20 @@
       <c r="F147">
         <v>1495</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>3415</v>
+      </c>
+      <c r="H147" s="1">
+        <v>8986</v>
+      </c>
+      <c r="I147" s="1">
+        <v>9546</v>
+      </c>
+      <c r="J147">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -3977,8 +5744,20 @@
       <c r="F148">
         <v>1506</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>3439</v>
+      </c>
+      <c r="H148" s="1">
+        <v>9546</v>
+      </c>
+      <c r="I148" s="1">
+        <v>9969</v>
+      </c>
+      <c r="J148">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -3997,8 +5776,20 @@
       <c r="F149">
         <v>1515</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>3463</v>
+      </c>
+      <c r="H149" s="1">
+        <v>9969</v>
+      </c>
+      <c r="I149" s="1">
+        <v>10551</v>
+      </c>
+      <c r="J149">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4017,8 +5808,20 @@
       <c r="F150">
         <v>1533</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>3487</v>
+      </c>
+      <c r="H150" s="1">
+        <v>10551</v>
+      </c>
+      <c r="I150" s="1">
+        <v>11114</v>
+      </c>
+      <c r="J150">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -4037,8 +5840,20 @@
       <c r="F151">
         <v>1542</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>3511</v>
+      </c>
+      <c r="H151" s="1">
+        <v>11114</v>
+      </c>
+      <c r="I151" s="1">
+        <v>11534</v>
+      </c>
+      <c r="J151">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -4057,8 +5872,20 @@
       <c r="F152">
         <v>1548</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>3536</v>
+      </c>
+      <c r="H152" s="1">
+        <v>11534</v>
+      </c>
+      <c r="I152" s="1">
+        <v>11811</v>
+      </c>
+      <c r="J152">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -4077,8 +5904,20 @@
       <c r="F153">
         <v>1567</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>3560</v>
+      </c>
+      <c r="H153" s="1">
+        <v>11811</v>
+      </c>
+      <c r="I153" s="1">
+        <v>12361</v>
+      </c>
+      <c r="J153">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -4097,8 +5936,20 @@
       <c r="F154">
         <v>1575</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>3584</v>
+      </c>
+      <c r="H154" s="1">
+        <v>12361</v>
+      </c>
+      <c r="I154" s="1">
+        <v>13129</v>
+      </c>
+      <c r="J154">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -4117,8 +5968,20 @@
       <c r="F155">
         <v>1583</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>3608</v>
+      </c>
+      <c r="H155" s="1">
+        <v>13129</v>
+      </c>
+      <c r="I155" s="1">
+        <v>13669</v>
+      </c>
+      <c r="J155">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -4137,8 +6000,20 @@
       <c r="F156">
         <v>1593</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>3632</v>
+      </c>
+      <c r="H156" s="1">
+        <v>13669</v>
+      </c>
+      <c r="I156" s="1">
+        <v>14600</v>
+      </c>
+      <c r="J156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -4157,9 +6032,20 @@
       <c r="F157">
         <v>1608</v>
       </c>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>3656</v>
+      </c>
+      <c r="H157" s="1">
+        <v>14600</v>
+      </c>
+      <c r="I157" s="1">
+        <v>15229</v>
+      </c>
+      <c r="J157">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -4178,8 +6064,20 @@
       <c r="F158">
         <v>1619</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>3681</v>
+      </c>
+      <c r="H158" s="1">
+        <v>15229</v>
+      </c>
+      <c r="I158" s="1">
+        <v>15841</v>
+      </c>
+      <c r="J158">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -4198,8 +6096,20 @@
       <c r="F159">
         <v>1632</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>3705</v>
+      </c>
+      <c r="H159" s="1">
+        <v>15841</v>
+      </c>
+      <c r="I159" s="1">
+        <v>16344</v>
+      </c>
+      <c r="J159">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -4218,8 +6128,20 @@
       <c r="F160">
         <v>1643</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>3729</v>
+      </c>
+      <c r="H160" s="1">
+        <v>16344</v>
+      </c>
+      <c r="I160" s="1">
+        <v>16800</v>
+      </c>
+      <c r="J160">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -4238,8 +6160,20 @@
       <c r="F161">
         <v>1654</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>3753</v>
+      </c>
+      <c r="H161" s="1">
+        <v>16800</v>
+      </c>
+      <c r="I161" s="1">
+        <v>17290</v>
+      </c>
+      <c r="J161">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4258,8 +6192,20 @@
       <c r="F162">
         <v>1683</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>3777</v>
+      </c>
+      <c r="H162" s="1">
+        <v>17290</v>
+      </c>
+      <c r="I162" s="1">
+        <v>17820</v>
+      </c>
+      <c r="J162">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4278,8 +6224,20 @@
       <c r="F163">
         <v>1703</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>3801</v>
+      </c>
+      <c r="H163" s="1">
+        <v>17820</v>
+      </c>
+      <c r="I163" s="1">
+        <v>18187</v>
+      </c>
+      <c r="J163">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4298,8 +6256,20 @@
       <c r="F164">
         <v>1747</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>3825</v>
+      </c>
+      <c r="H164" s="1">
+        <v>18187</v>
+      </c>
+      <c r="I164" s="1">
+        <v>18975</v>
+      </c>
+      <c r="J164">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4318,8 +6288,20 @@
       <c r="F165">
         <v>1803</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>3850</v>
+      </c>
+      <c r="H165" s="1">
+        <v>18975</v>
+      </c>
+      <c r="I165" s="1">
+        <v>19402</v>
+      </c>
+      <c r="J165">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4338,8 +6320,20 @@
       <c r="F166">
         <v>1827</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>3874</v>
+      </c>
+      <c r="H166" s="1">
+        <v>19402</v>
+      </c>
+      <c r="I166">
+        <v>1842</v>
+      </c>
+      <c r="J166">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4358,8 +6352,20 @@
       <c r="F167">
         <v>1842</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>3898</v>
+      </c>
+      <c r="H167">
+        <v>3898</v>
+      </c>
+      <c r="I167">
+        <v>1858</v>
+      </c>
+      <c r="J167">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4378,8 +6384,20 @@
       <c r="F168">
         <v>1858</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>3922</v>
+      </c>
+      <c r="H168">
+        <v>3922</v>
+      </c>
+      <c r="I168">
+        <v>1873</v>
+      </c>
+      <c r="J168">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4398,8 +6416,20 @@
       <c r="F169">
         <v>1873</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>3946</v>
+      </c>
+      <c r="H169">
+        <v>3946</v>
+      </c>
+      <c r="I169">
+        <v>1888</v>
+      </c>
+      <c r="J169">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4418,8 +6448,20 @@
       <c r="F170">
         <v>1888</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>3970</v>
+      </c>
+      <c r="H170">
+        <v>3970</v>
+      </c>
+      <c r="I170">
+        <v>1924</v>
+      </c>
+      <c r="J170">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4438,8 +6480,20 @@
       <c r="F171">
         <v>1924</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>3995</v>
+      </c>
+      <c r="H171">
+        <v>3995</v>
+      </c>
+      <c r="I171">
+        <v>363</v>
+      </c>
+      <c r="J171">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4458,8 +6512,20 @@
       <c r="F172">
         <v>363</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>4019</v>
+      </c>
+      <c r="H172">
+        <v>4019</v>
+      </c>
+      <c r="I172">
+        <v>395</v>
+      </c>
+      <c r="J172">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -4478,8 +6544,20 @@
       <c r="F173">
         <v>395</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>4043</v>
+      </c>
+      <c r="H173">
+        <v>4043</v>
+      </c>
+      <c r="I173">
+        <v>405</v>
+      </c>
+      <c r="J173">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4498,8 +6576,20 @@
       <c r="F174">
         <v>405</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>4067</v>
+      </c>
+      <c r="H174">
+        <v>4067</v>
+      </c>
+      <c r="I174">
+        <v>417</v>
+      </c>
+      <c r="J174">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4518,8 +6608,20 @@
       <c r="F175">
         <v>417</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>4091</v>
+      </c>
+      <c r="H175">
+        <v>4091</v>
+      </c>
+      <c r="I175">
+        <v>426</v>
+      </c>
+      <c r="J175">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4538,8 +6640,20 @@
       <c r="F176">
         <v>426</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>4115</v>
+      </c>
+      <c r="H176">
+        <v>4115</v>
+      </c>
+      <c r="I176">
+        <v>471</v>
+      </c>
+      <c r="J176">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4558,8 +6672,20 @@
       <c r="F177">
         <v>471</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>4140</v>
+      </c>
+      <c r="H177">
+        <v>4140</v>
+      </c>
+      <c r="I177">
+        <v>479</v>
+      </c>
+      <c r="J177">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4578,8 +6704,20 @@
       <c r="F178">
         <v>479</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>4164</v>
+      </c>
+      <c r="H178">
+        <v>4164</v>
+      </c>
+      <c r="I178">
+        <v>479</v>
+      </c>
+      <c r="J178">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4598,8 +6736,20 @@
       <c r="F179">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>4188</v>
+      </c>
+      <c r="H179">
+        <v>4188</v>
+      </c>
+      <c r="I179">
+        <v>485</v>
+      </c>
+      <c r="J179">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4618,8 +6768,20 @@
       <c r="F180">
         <v>485</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>4212</v>
+      </c>
+      <c r="H180">
+        <v>4212</v>
+      </c>
+      <c r="I180">
+        <v>497</v>
+      </c>
+      <c r="J180">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4638,6 +6800,45 @@
       <c r="F181">
         <v>497</v>
       </c>
+      <c r="G181">
+        <v>4236</v>
+      </c>
+      <c r="H181">
+        <v>4236</v>
+      </c>
+      <c r="I181" t="s">
+        <v>194</v>
+      </c>
+      <c r="J181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J182" s="3"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J183" s="3"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J184" s="3"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J185" s="3"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J186" s="3"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J187" s="3"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J188" s="3"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J189" s="3"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J190" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/Consulta2.xlsx
+++ b/backend/Consulta2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Espina\Desktop\Compiladores 2\OLC2-Coronavirus-Data-Analysis-With-Machine-Learning\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D63D59-BFB9-49A2-B5CE-F60DE422A778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703C7811-5CFB-42A8-9F30-F7B088F2A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{509D8F0D-7B5E-44D0-BC14-972074DCFF11}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="201">
   <si>
     <t>Infectados</t>
   </si>
@@ -626,6 +626,15 @@
   </si>
   <si>
     <t>Mujer</t>
+  </si>
+  <si>
+    <t>Continente</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Europa</t>
   </si>
 </sst>
 </file>
@@ -680,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -691,6 +700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,5840 +1015,6385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0982241F-302C-4A7E-BFE3-35BF9F97BC01}">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="M165" sqref="M165"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>193</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
         <v>43831</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>43832</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>43833</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>43834</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>43835</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>9</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>36</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>43836</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>9</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>43837</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>42</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>43838</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>22</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>45</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>43839</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>23</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>48</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>62</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>43840</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>26</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>50</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>36</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>43841</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>27</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>52</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>43842</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>35</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>54</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>43843</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>41</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>56</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>23</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>43844</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>50</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>100</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>65</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>43845</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>69</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>14</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>255</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>3</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>43846</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>89</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>15</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>300</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>43847</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>117</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>22</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>350</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>43848</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>134</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>22</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>400</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>43849</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>158</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>22</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>450</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>9</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>43850</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>177</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>22</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>500</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>13</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>43851</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>201</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>23</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>395</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>22</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>43852</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>231</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>419</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>23</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>43853</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>263</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>24</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>443</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>26</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>43854</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>295</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>25</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>468</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>27</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>12</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>43855</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>314</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>25</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>492</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>35</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>41</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>43856</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>330</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>26</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>516</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>41</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>50</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>43857</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>347</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>31</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>540</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>50</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>69</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>43858</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>375</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>35</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>564</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>69</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>89</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>43859</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>396</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>41</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>588</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>89</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>117</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>43860</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>416</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>46</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>612</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>117</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>134</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>43861</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>435</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>46</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>637</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>134</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>158</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>43862</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>454</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>46</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>661</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>158</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>177</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>43863</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>467</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>46</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>685</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>177</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>201</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>43864</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>483</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>47</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>709</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>201</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>231</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>43865</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>502</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>47</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>733</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>231</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>263</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>43866</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>539</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>55</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>757</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>263</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>295</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>43867</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>558</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>59</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>782</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>295</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>314</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>43868</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>577</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>61</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>806</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>314</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>330</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>43869</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>595</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>64</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>830</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>330</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>347</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>35</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>43870</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>612</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>66</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>854</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>347</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>375</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>43871</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>618</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>71</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>878</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>375</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>396</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="2">
         <v>43872</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>626</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>75</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>902</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>396</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>416</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>43873</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>642</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>75</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>927</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>416</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>435</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>43874</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>649</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>76</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>951</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>435</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>454</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>52</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>43875</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>655</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>82</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>975</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>454</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>467</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>43876</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>660</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>83</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>999</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>467</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>483</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>43877</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>662</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>93</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>1023</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>483</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>502</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>43878</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>669</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>99</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>1047</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>502</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>539</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>52</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>43879</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>681</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>105</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>1071</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>539</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>558</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
         <v>52</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>43880</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>686</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>107</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1096</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>558</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>577</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>43881</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>687</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>108</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>1120</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>577</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>595</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>43882</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>693</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>108</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1144</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>595</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>612</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>43883</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>695</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>116</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>1168</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>612</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>618</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>43884</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>697</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>121</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>1192</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>618</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>626</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>43885</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>705</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>123</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1216</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>626</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>642</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>52</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>43886</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>713</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>133</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1241</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>642</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>649</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
         <v>52</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>43887</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>719</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>134</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1265</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>649</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>655</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2">
         <v>43888</v>
       </c>
-      <c r="E59" s="1">
+      <c r="F59" s="1">
         <v>725</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>138</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>1289</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>655</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>660</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>43889</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>733</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>142</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>1313</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>660</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>662</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>43890</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>739</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>146</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>1337</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>662</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>669</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>43891</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>742</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>147</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1361</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>669</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>681</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>43892</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>755</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>151</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>1386</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>681</v>
       </c>
-      <c r="I63" s="1">
+      <c r="J63" s="1">
         <v>686</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>43893</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>761</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>156</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1410</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>686</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>687</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>43894</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>765</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>167</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>1434</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>687</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>693</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>43895</v>
       </c>
-      <c r="E66" s="1">
+      <c r="F66" s="1">
         <v>773</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>174</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1458</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>693</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>695</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>43896</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>780</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>180</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1482</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <v>695</v>
       </c>
-      <c r="I67" s="1">
+      <c r="J67" s="1">
         <v>697</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E68" s="2">
         <v>43897</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>792</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>182</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1506</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>697</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>705</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
         <v>8</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>43898</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>801</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>188</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>1530</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>705</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>713</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>43899</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>804</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>194</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>1555</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>713</v>
       </c>
-      <c r="I70" s="1">
+      <c r="J70" s="1">
         <v>719</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2">
         <v>43900</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>815</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>196</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1579</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <v>719</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>725</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="2">
+      <c r="E72" s="2">
         <v>43901</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>830</v>
       </c>
-      <c r="F72">
-        <v>199</v>
-      </c>
       <c r="G72">
+        <v>199</v>
+      </c>
+      <c r="H72">
         <v>1603</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>725</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>733</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
         <v>81</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
         <v>43902</v>
       </c>
-      <c r="E73" s="1">
+      <c r="F73" s="1">
         <v>843</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>201</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1627</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>733</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <v>739</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
         <v>81</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>83</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E74" s="2">
         <v>43903</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>853</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>212</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>1651</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>739</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <v>742</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
         <v>81</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="2">
+      <c r="E75" s="2">
         <v>43904</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>863</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>217</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1675</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>742</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>755</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
         <v>81</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>43905</v>
       </c>
-      <c r="E76" s="1">
+      <c r="F76" s="1">
         <v>866</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>225</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>1700</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>755</v>
       </c>
-      <c r="I76" s="1">
+      <c r="J76" s="1">
         <v>761</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
         <v>81</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>86</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E77" s="2">
         <v>43906</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>882</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>234</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1724</v>
       </c>
-      <c r="H77" s="1">
+      <c r="I77" s="1">
         <v>761</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <v>765</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
         <v>81</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>87</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>43907</v>
       </c>
-      <c r="E78" s="1">
+      <c r="F78" s="1">
         <v>897</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>243</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>1748</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="1">
         <v>765</v>
       </c>
-      <c r="I78" s="1">
+      <c r="J78" s="1">
         <v>773</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>81</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="2">
+      <c r="E79" s="2">
         <v>43908</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>903</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>248</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>1772</v>
       </c>
-      <c r="H79" s="1">
+      <c r="I79" s="1">
         <v>773</v>
       </c>
-      <c r="I79" s="1">
+      <c r="J79" s="1">
         <v>780</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
         <v>81</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>89</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>43909</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>911</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>250</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1796</v>
       </c>
-      <c r="H80" s="1">
+      <c r="I80" s="1">
         <v>780</v>
       </c>
-      <c r="I80" s="1">
+      <c r="J80" s="1">
         <v>792</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
         <v>81</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>43910</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>918</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>258</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>1820</v>
       </c>
-      <c r="H81" s="1">
+      <c r="I81" s="1">
         <v>792</v>
       </c>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <v>801</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>91</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E82" s="2">
         <v>43911</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>930</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>262</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>1845</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>801</v>
       </c>
-      <c r="I82" s="1">
+      <c r="J82" s="1">
         <v>804</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
         <v>81</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E83" s="2">
         <v>43912</v>
       </c>
-      <c r="E83" s="1">
+      <c r="F83" s="1">
         <v>951</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>271</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1869</v>
       </c>
-      <c r="H83" s="1">
+      <c r="I83" s="1">
         <v>804</v>
       </c>
-      <c r="I83" s="1">
+      <c r="J83" s="1">
         <v>815</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
         <v>81</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>93</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>43913</v>
       </c>
-      <c r="E84" s="1">
+      <c r="F84" s="1">
         <v>956</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>290</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>1893</v>
       </c>
-      <c r="H84" s="1">
+      <c r="I84" s="1">
         <v>815</v>
       </c>
-      <c r="I84" s="1">
+      <c r="J84" s="1">
         <v>830</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>81</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>94</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>43914</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>984</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>294</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1917</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>830</v>
       </c>
-      <c r="I85" s="1">
+      <c r="J85" s="1">
         <v>843</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
         <v>81</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>95</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>43915</v>
       </c>
-      <c r="E86" s="1">
+      <c r="F86" s="1">
         <v>1000</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>306</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>1941</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>843</v>
       </c>
-      <c r="I86" s="1">
+      <c r="J86" s="1">
         <v>853</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>43916</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>1022</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>310</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>1965</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>853</v>
       </c>
-      <c r="I87" s="1">
+      <c r="J87" s="1">
         <v>863</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
         <v>96</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>98</v>
       </c>
-      <c r="D88" s="2">
+      <c r="E88" s="2">
         <v>43917</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>1047</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>312</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>1989</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>863</v>
       </c>
-      <c r="I88" s="1">
+      <c r="J88" s="1">
         <v>866</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
         <v>96</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="2">
+      <c r="E89" s="2">
         <v>43918</v>
       </c>
-      <c r="E89" s="1">
+      <c r="F89" s="1">
         <v>1056</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>322</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>2014</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <v>866</v>
       </c>
-      <c r="I89" s="1">
+      <c r="J89" s="1">
         <v>882</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
         <v>96</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>43919</v>
       </c>
-      <c r="E90" s="1">
+      <c r="F90" s="1">
         <v>1084</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>330</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>2038</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>882</v>
       </c>
-      <c r="I90" s="1">
+      <c r="J90" s="1">
         <v>897</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
         <v>96</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="2">
+      <c r="E91" s="2">
         <v>43920</v>
       </c>
-      <c r="E91" s="1">
+      <c r="F91" s="1">
         <v>1105</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>336</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>2062</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>897</v>
       </c>
-      <c r="I91" s="1">
+      <c r="J91" s="1">
         <v>903</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
         <v>96</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>43921</v>
       </c>
-      <c r="E92" s="1">
+      <c r="F92" s="1">
         <v>1157</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>343</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>2086</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>903</v>
       </c>
-      <c r="I92" s="1">
+      <c r="J92" s="1">
         <v>911</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
         <v>96</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>43922</v>
       </c>
-      <c r="E93" s="1">
+      <c r="F93" s="1">
         <v>1194</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>349</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>2110</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <v>911</v>
       </c>
-      <c r="I93" s="1">
+      <c r="J93" s="1">
         <v>918</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
         <v>96</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>43923</v>
       </c>
-      <c r="E94" s="1">
+      <c r="F94" s="1">
         <v>1228</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>358</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>2134</v>
       </c>
-      <c r="H94" s="1">
+      <c r="I94" s="1">
         <v>918</v>
       </c>
-      <c r="I94" s="1">
+      <c r="J94" s="1">
         <v>930</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
         <v>96</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>105</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>43924</v>
       </c>
-      <c r="E95" s="1">
+      <c r="F95" s="1">
         <v>1263</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>363</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>2159</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <v>930</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>951</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
         <v>96</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>43925</v>
       </c>
-      <c r="E96" s="1">
+      <c r="F96" s="1">
         <v>1318</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>395</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>2183</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>951</v>
       </c>
-      <c r="I96" s="1">
+      <c r="J96" s="1">
         <v>956</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>107</v>
       </c>
-      <c r="D97" s="2">
+      <c r="E97" s="2">
         <v>43926</v>
       </c>
-      <c r="E97" s="1">
+      <c r="F97" s="1">
         <v>1342</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>405</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>2207</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>956</v>
       </c>
-      <c r="I97" s="1">
+      <c r="J97" s="1">
         <v>984</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
         <v>96</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>108</v>
       </c>
-      <c r="D98" s="2">
+      <c r="E98" s="2">
         <v>43927</v>
       </c>
-      <c r="E98" s="1">
+      <c r="F98" s="1">
         <v>1375</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>417</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>2231</v>
       </c>
-      <c r="H98" s="1">
+      <c r="I98" s="1">
         <v>984</v>
       </c>
-      <c r="I98" s="1">
+      <c r="J98" s="1">
         <v>1000</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
         <v>96</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>109</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>43928</v>
       </c>
-      <c r="E99" s="1">
+      <c r="F99" s="1">
         <v>1461</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>426</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>2255</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>1000</v>
       </c>
-      <c r="I99" s="1">
+      <c r="J99" s="1">
         <v>1022</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
         <v>96</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>110</v>
       </c>
-      <c r="D100" s="2">
+      <c r="E100" s="2">
         <v>43929</v>
       </c>
-      <c r="E100" s="1">
+      <c r="F100" s="1">
         <v>1538</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>471</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>2279</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>1022</v>
       </c>
-      <c r="I100" s="1">
+      <c r="J100" s="1">
         <v>1047</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
         <v>96</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>111</v>
       </c>
-      <c r="D101" s="2">
+      <c r="E101" s="2">
         <v>43930</v>
       </c>
-      <c r="E101" s="1">
+      <c r="F101" s="1">
         <v>1612</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>479</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>2304</v>
       </c>
-      <c r="H101" s="1">
+      <c r="I101" s="1">
         <v>1047</v>
       </c>
-      <c r="I101" s="1">
+      <c r="J101" s="1">
         <v>1056</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
         <v>96</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>112</v>
       </c>
-      <c r="D102" s="2">
+      <c r="E102" s="2">
         <v>43931</v>
       </c>
-      <c r="E102" s="1">
+      <c r="F102" s="1">
         <v>1662</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>479</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>2328</v>
       </c>
-      <c r="H102" s="1">
-        <v>1056</v>
-      </c>
       <c r="I102" s="1">
+        <v>1061</v>
+      </c>
+      <c r="J102" s="1">
         <v>1084</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
         <v>96</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="2">
+      <c r="E103" s="2">
         <v>43932</v>
       </c>
-      <c r="E103" s="1">
+      <c r="F103" s="1">
         <v>1715</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>485</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>2352</v>
       </c>
-      <c r="H103" s="1">
-        <v>1084</v>
-      </c>
       <c r="I103" s="1">
+        <v>1080.17857142857</v>
+      </c>
+      <c r="J103" s="1">
         <v>1105</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
         <v>96</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="2">
+      <c r="E104" s="2">
         <v>43933</v>
       </c>
-      <c r="E104" s="1">
+      <c r="F104" s="1">
         <v>1744</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>497</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>2376</v>
       </c>
-      <c r="H104" s="1">
-        <v>1105</v>
-      </c>
       <c r="I104" s="1">
+        <v>1099.3571428571399</v>
+      </c>
+      <c r="J104" s="1">
         <v>1157</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
         <v>96</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>115</v>
       </c>
-      <c r="D105" s="2">
+      <c r="E105" s="2">
         <v>43934</v>
       </c>
-      <c r="E105" s="1">
+      <c r="F105" s="1">
         <v>1796</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>542</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>2400</v>
       </c>
-      <c r="H105" s="1">
-        <v>1157</v>
-      </c>
       <c r="I105" s="1">
+        <v>1118.5357142857099</v>
+      </c>
+      <c r="J105" s="1">
         <v>1194</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
         <v>116</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>117</v>
       </c>
-      <c r="D106" s="2">
+      <c r="E106" s="2">
         <v>43935</v>
       </c>
-      <c r="E106" s="1">
+      <c r="F106" s="1">
         <v>1871</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>591</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>2424</v>
       </c>
-      <c r="H106" s="1">
-        <v>1194</v>
-      </c>
       <c r="I106" s="1">
+        <v>1137.7142857142901</v>
+      </c>
+      <c r="J106" s="1">
         <v>1228</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
         <v>116</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="2">
+      <c r="E107" s="2">
         <v>43936</v>
       </c>
-      <c r="E107" s="1">
+      <c r="F107" s="1">
         <v>1939</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>605</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>2448</v>
       </c>
-      <c r="H107" s="1">
-        <v>1228</v>
-      </c>
       <c r="I107" s="1">
+        <v>1156.8928571428601</v>
+      </c>
+      <c r="J107" s="1">
         <v>1263</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
         <v>116</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>119</v>
       </c>
-      <c r="D108" s="2">
+      <c r="E108" s="2">
         <v>43937</v>
       </c>
-      <c r="E108" s="1">
+      <c r="F108" s="1">
         <v>2058</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>629</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>2473</v>
       </c>
-      <c r="H108" s="1">
-        <v>1263</v>
-      </c>
       <c r="I108" s="1">
+        <v>1176.07142857143</v>
+      </c>
+      <c r="J108" s="1">
         <v>1318</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
         <v>116</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>120</v>
       </c>
-      <c r="D109" s="2">
+      <c r="E109" s="2">
         <v>43938</v>
       </c>
-      <c r="E109" s="1">
+      <c r="F109" s="1">
         <v>2127</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>623</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>2497</v>
       </c>
-      <c r="H109" s="1">
-        <v>1318</v>
-      </c>
       <c r="I109" s="1">
+        <v>1195.25</v>
+      </c>
+      <c r="J109" s="1">
         <v>1342</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
         <v>116</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="2">
+      <c r="E110" s="2">
         <v>43939</v>
       </c>
-      <c r="E110" s="1">
+      <c r="F110" s="1">
         <v>2213</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>656</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>2521</v>
       </c>
-      <c r="H110" s="1">
-        <v>1342</v>
-      </c>
       <c r="I110" s="1">
+        <v>1214.42857142857</v>
+      </c>
+      <c r="J110" s="1">
         <v>1375</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
         <v>116</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>122</v>
       </c>
-      <c r="D111" s="2">
+      <c r="E111" s="2">
         <v>43940</v>
       </c>
-      <c r="E111" s="1">
+      <c r="F111" s="1">
         <v>2277</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>677</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>2545</v>
       </c>
-      <c r="H111" s="1">
-        <v>1375</v>
-      </c>
       <c r="I111" s="1">
+        <v>1233.6071428571399</v>
+      </c>
+      <c r="J111" s="1">
         <v>1461</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
         <v>116</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="2">
+      <c r="E112" s="2">
         <v>43941</v>
       </c>
-      <c r="E112" s="1">
+      <c r="F112" s="1">
         <v>2368</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>694</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>2569</v>
       </c>
-      <c r="H112" s="1">
-        <v>1461</v>
-      </c>
       <c r="I112" s="1">
+        <v>1252.7857142857099</v>
+      </c>
+      <c r="J112" s="1">
         <v>1538</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
         <v>116</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>124</v>
       </c>
-      <c r="D113" s="2">
+      <c r="E113" s="2">
         <v>43942</v>
       </c>
-      <c r="E113" s="1">
+      <c r="F113" s="1">
         <v>2515</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>704</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>2593</v>
       </c>
-      <c r="H113" s="1">
-        <v>1538</v>
-      </c>
       <c r="I113" s="1">
+        <v>1271.9642857142901</v>
+      </c>
+      <c r="J113" s="1">
         <v>1612</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
         <v>125</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2">
         <v>43943</v>
       </c>
-      <c r="E114" s="1">
+      <c r="F114" s="1">
         <v>2684</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>750</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>2618</v>
       </c>
-      <c r="H114" s="1">
-        <v>1612</v>
-      </c>
       <c r="I114" s="1">
+        <v>1291.1428571428601</v>
+      </c>
+      <c r="J114" s="1">
         <v>1662</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>125</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>126</v>
       </c>
-      <c r="D115" s="2">
+      <c r="E115" s="2">
         <v>43944</v>
       </c>
-      <c r="E115" s="1">
+      <c r="F115" s="1">
         <v>2836</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>771</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>2642</v>
       </c>
-      <c r="H115" s="1">
-        <v>1662</v>
-      </c>
       <c r="I115" s="1">
+        <v>1310.32142857143</v>
+      </c>
+      <c r="J115" s="1">
         <v>1715</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
         <v>125</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="2">
+      <c r="E116" s="2">
         <v>43945</v>
       </c>
-      <c r="E116" s="1">
+      <c r="F116" s="1">
         <v>2979</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>774</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>2666</v>
       </c>
-      <c r="H116" s="1">
-        <v>1715</v>
-      </c>
       <c r="I116" s="1">
+        <v>1225.06199819982</v>
+      </c>
+      <c r="J116" s="1">
         <v>1744</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
         <v>125</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="2">
+      <c r="E117" s="2">
         <v>43946</v>
       </c>
-      <c r="E117" s="1">
+      <c r="F117" s="1">
         <v>3130</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>789</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>2690</v>
       </c>
-      <c r="H117" s="1">
-        <v>1744</v>
-      </c>
       <c r="I117" s="1">
+        <v>1236.8088508850899</v>
+      </c>
+      <c r="J117" s="1">
         <v>1796</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
         <v>125</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>129</v>
       </c>
-      <c r="D118" s="2">
+      <c r="E118" s="2">
         <v>43947</v>
       </c>
-      <c r="E118" s="1">
+      <c r="F118" s="1">
         <v>3269</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>771</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>2714</v>
       </c>
-      <c r="H118" s="1">
-        <v>1796</v>
-      </c>
       <c r="I118" s="1">
+        <v>1248.55570357036</v>
+      </c>
+      <c r="J118" s="1">
         <v>1871</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
         <v>125</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>130</v>
       </c>
-      <c r="D119" s="2">
+      <c r="E119" s="2">
         <v>43948</v>
       </c>
-      <c r="E119" s="1">
+      <c r="F119" s="1">
         <v>3459</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>774</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>2738</v>
       </c>
-      <c r="H119" s="1">
-        <v>1871</v>
-      </c>
       <c r="I119" s="1">
+        <v>1260.30255625563</v>
+      </c>
+      <c r="J119" s="1">
         <v>1939</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
         <v>125</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>131</v>
       </c>
-      <c r="D120" s="2">
+      <c r="E120" s="2">
         <v>43949</v>
       </c>
-      <c r="E120" s="1">
+      <c r="F120" s="1">
         <v>3753</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>789</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>2763</v>
       </c>
-      <c r="H120" s="1">
-        <v>1939</v>
-      </c>
       <c r="I120" s="1">
+        <v>1272.0494089409001</v>
+      </c>
+      <c r="J120" s="1">
         <v>2058</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>96</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
         <v>125</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>132</v>
       </c>
-      <c r="D121" s="2">
+      <c r="E121" s="2">
         <v>43950</v>
       </c>
-      <c r="E121" s="1">
+      <c r="F121" s="1">
         <v>4023</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>807</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>2787</v>
       </c>
-      <c r="H121" s="1">
-        <v>2058</v>
-      </c>
       <c r="I121" s="1">
+        <v>1283.79626162616</v>
+      </c>
+      <c r="J121" s="1">
         <v>2127</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
         <v>125</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>133</v>
       </c>
-      <c r="D122" s="2">
+      <c r="E122" s="2">
         <v>43951</v>
       </c>
-      <c r="E122" s="1">
+      <c r="F122" s="1">
         <v>4311</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>825</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>2811</v>
       </c>
-      <c r="H122" s="1">
-        <v>2127</v>
-      </c>
       <c r="I122" s="1">
+        <v>1295.5431143114299</v>
+      </c>
+      <c r="J122" s="1">
         <v>2213</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
         <v>125</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>134</v>
       </c>
-      <c r="D123" s="2">
+      <c r="E123" s="2">
         <v>43952</v>
       </c>
-      <c r="E123" s="1">
+      <c r="F123" s="1">
         <v>4621</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>835</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>2835</v>
       </c>
-      <c r="H123" s="1">
-        <v>2213</v>
-      </c>
       <c r="I123" s="1">
+        <v>1307.2899669967001</v>
+      </c>
+      <c r="J123" s="1">
         <v>2277</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
         <v>125</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>135</v>
       </c>
-      <c r="D124" s="2">
+      <c r="E124" s="2">
         <v>43953</v>
       </c>
-      <c r="E124" s="1">
+      <c r="F124" s="1">
         <v>4996</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>857</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>2859</v>
       </c>
-      <c r="H124" s="1">
-        <v>2277</v>
-      </c>
       <c r="I124" s="1">
+        <v>1319.03681968197</v>
+      </c>
+      <c r="J124" s="1">
         <v>2368</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
         <v>125</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>136</v>
       </c>
-      <c r="D125" s="2">
+      <c r="E125" s="2">
         <v>43954</v>
       </c>
-      <c r="E125" s="1">
+      <c r="F125" s="1">
         <v>5241</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>891</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>2883</v>
       </c>
-      <c r="H125" s="1">
-        <v>2368</v>
-      </c>
       <c r="I125" s="1">
+        <v>1330.7836723672399</v>
+      </c>
+      <c r="J125" s="1">
         <v>2515</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="2">
+      <c r="E126" s="2">
         <v>43955</v>
       </c>
-      <c r="E126" s="1">
+      <c r="F126" s="1">
         <v>5486</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>900</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>2907</v>
       </c>
-      <c r="H126" s="1">
-        <v>2515</v>
-      </c>
       <c r="I126" s="1">
+        <v>1342.53052505251</v>
+      </c>
+      <c r="J126" s="1">
         <v>2684</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
         <v>125</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="2">
+      <c r="E127" s="2">
         <v>43956</v>
       </c>
-      <c r="E127" s="1">
+      <c r="F127" s="1">
         <v>5836</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>935</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>2932</v>
       </c>
-      <c r="H127" s="1">
-        <v>2684</v>
-      </c>
       <c r="I127" s="1">
+        <v>1354.2773777377799</v>
+      </c>
+      <c r="J127" s="1">
         <v>2836</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
         <v>125</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="2">
+      <c r="E128" s="2">
         <v>43957</v>
       </c>
-      <c r="E128" s="1">
+      <c r="F128" s="1">
         <v>6485</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>988</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>2956</v>
       </c>
-      <c r="H128" s="1">
-        <v>2836</v>
-      </c>
       <c r="I128" s="1">
+        <v>1366.0242304230401</v>
+      </c>
+      <c r="J128" s="1">
         <v>2979</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
         <v>125</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>140</v>
       </c>
-      <c r="D129" s="2">
+      <c r="E129" s="2">
         <v>43958</v>
       </c>
-      <c r="E129" s="1">
+      <c r="F129" s="1">
         <v>6845</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>1006</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>2980</v>
       </c>
-      <c r="H129" s="1">
-        <v>2979</v>
-      </c>
       <c r="I129" s="1">
+        <v>1377.77108310831</v>
+      </c>
+      <c r="J129" s="1">
         <v>3130</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
         <v>125</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>141</v>
       </c>
-      <c r="D130" s="2">
+      <c r="E130" s="2">
         <v>43959</v>
       </c>
-      <c r="E130" s="1">
+      <c r="F130" s="1">
         <v>7231</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>1011</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>3004</v>
       </c>
-      <c r="H130" s="1">
-        <v>3130</v>
-      </c>
       <c r="I130" s="1">
+        <v>1389.5179357935799</v>
+      </c>
+      <c r="J130" s="1">
         <v>3269</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
         <v>125</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>142</v>
       </c>
-      <c r="D131" s="2">
+      <c r="E131" s="2">
         <v>43960</v>
       </c>
-      <c r="E131" s="1">
+      <c r="F131" s="1">
         <v>7596</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>1061</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>3028</v>
       </c>
-      <c r="H131" s="1">
-        <v>3269</v>
-      </c>
       <c r="I131" s="1">
+        <v>1401.2647884788501</v>
+      </c>
+      <c r="J131" s="1">
         <v>3459</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
         <v>125</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>143</v>
       </c>
-      <c r="D132" s="2">
+      <c r="E132" s="2">
         <v>43961</v>
       </c>
-      <c r="E132" s="1">
+      <c r="F132" s="1">
         <v>8036</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>1098</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>3052</v>
       </c>
-      <c r="H132" s="1">
-        <v>3459</v>
-      </c>
       <c r="I132" s="1">
+        <v>1413.01164116412</v>
+      </c>
+      <c r="J132" s="1">
         <v>3753</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>96</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
         <v>125</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>144</v>
       </c>
-      <c r="D133" s="2">
+      <c r="E133" s="2">
         <v>43962</v>
       </c>
-      <c r="E133" s="1">
+      <c r="F133" s="1">
         <v>8482</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>1116</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>3077</v>
       </c>
-      <c r="H133" s="1">
-        <v>3753</v>
-      </c>
       <c r="I133" s="1">
+        <v>1424.7584938493901</v>
+      </c>
+      <c r="J133" s="1">
         <v>4023</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
         <v>125</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>145</v>
       </c>
-      <c r="D134" s="2">
+      <c r="E134" s="2">
         <v>43963</v>
       </c>
-      <c r="E134" s="1">
+      <c r="F134" s="1">
         <v>8986</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>1166</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>3101</v>
       </c>
-      <c r="H134" s="1">
-        <v>4023</v>
-      </c>
       <c r="I134" s="1">
+        <v>1436.50534653466</v>
+      </c>
+      <c r="J134" s="1">
         <v>4311</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>66</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
         <v>125</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>146</v>
       </c>
-      <c r="D135" s="2">
+      <c r="E135" s="2">
         <v>43964</v>
       </c>
-      <c r="E135" s="1">
+      <c r="F135" s="1">
         <v>9546</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>1214</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>3125</v>
       </c>
-      <c r="H135" s="1">
-        <v>4311</v>
-      </c>
       <c r="I135" s="1">
+        <v>1448.2521992199199</v>
+      </c>
+      <c r="J135" s="1">
         <v>4621</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
         <v>125</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>147</v>
       </c>
-      <c r="D136" s="2">
+      <c r="E136" s="2">
         <v>43965</v>
       </c>
-      <c r="E136" s="1">
+      <c r="F136" s="1">
         <v>9969</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>1259</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>3149</v>
       </c>
-      <c r="H136" s="1">
-        <v>4621</v>
-      </c>
       <c r="I136" s="1">
+        <v>1459.9990519051901</v>
+      </c>
+      <c r="J136" s="1">
         <v>4996</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
         <v>125</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>148</v>
       </c>
-      <c r="D137" s="2">
+      <c r="E137" s="2">
         <v>43966</v>
       </c>
-      <c r="E137" s="1">
+      <c r="F137" s="1">
         <v>10551</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>1312</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>3173</v>
       </c>
-      <c r="H137" s="1">
-        <v>4996</v>
-      </c>
       <c r="I137" s="1">
+        <v>1471.74590459046</v>
+      </c>
+      <c r="J137" s="1">
         <v>5241</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
         <v>149</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>150</v>
       </c>
-      <c r="D138" s="2">
+      <c r="E138" s="2">
         <v>43967</v>
       </c>
-      <c r="E138" s="1">
+      <c r="F138" s="1">
         <v>11114</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>1337</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>3197</v>
       </c>
-      <c r="H138" s="1">
-        <v>5241</v>
-      </c>
       <c r="I138" s="1">
+        <v>1483.4927572757299</v>
+      </c>
+      <c r="J138" s="1">
         <v>5486</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
         <v>149</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>151</v>
       </c>
-      <c r="D139" s="2">
+      <c r="E139" s="2">
         <v>43968</v>
       </c>
-      <c r="E139" s="1">
+      <c r="F139" s="1">
         <v>11534</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>1368</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>3222</v>
       </c>
-      <c r="H139" s="1">
-        <v>5486</v>
-      </c>
       <c r="I139" s="1">
+        <v>1495.239609961</v>
+      </c>
+      <c r="J139" s="1">
         <v>5836</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
         <v>149</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>152</v>
       </c>
-      <c r="D140" s="2">
+      <c r="E140" s="2">
         <v>43969</v>
       </c>
-      <c r="E140" s="1">
+      <c r="F140" s="1">
         <v>11811</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>1377</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>3246</v>
       </c>
-      <c r="H140" s="1">
-        <v>5836</v>
-      </c>
       <c r="I140" s="1">
+        <v>1506.98646264627</v>
+      </c>
+      <c r="J140" s="1">
         <v>6485</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
         <v>149</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>153</v>
       </c>
-      <c r="D141" s="2">
+      <c r="E141" s="2">
         <v>43970</v>
       </c>
-      <c r="E141" s="1">
+      <c r="F141" s="1">
         <v>12361</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>1384</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>3270</v>
       </c>
-      <c r="H141" s="1">
-        <v>6485</v>
-      </c>
       <c r="I141" s="1">
+        <v>1518.7333153315401</v>
+      </c>
+      <c r="J141" s="1">
         <v>6845</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
         <v>149</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>154</v>
       </c>
-      <c r="D142" s="2">
+      <c r="E142" s="2">
         <v>43971</v>
       </c>
-      <c r="E142" s="1">
+      <c r="F142" s="1">
         <v>13129</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>1400</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>3294</v>
       </c>
-      <c r="H142" s="1">
-        <v>6845</v>
-      </c>
       <c r="I142" s="1">
+        <v>1530.4801680168</v>
+      </c>
+      <c r="J142" s="1">
         <v>7231</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>25</v>
       </c>
-      <c r="K142" s="4"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
         <v>149</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>155</v>
       </c>
-      <c r="D143" s="2">
+      <c r="E143" s="2">
         <v>43972</v>
       </c>
-      <c r="E143" s="1">
+      <c r="F143" s="1">
         <v>13669</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>1423</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>3318</v>
       </c>
-      <c r="H143" s="1">
-        <v>7231</v>
-      </c>
       <c r="I143" s="1">
+        <v>1542.2270207020699</v>
+      </c>
+      <c r="J143" s="1">
         <v>7596</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
         <v>149</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>156</v>
       </c>
-      <c r="D144" s="2">
+      <c r="E144" s="2">
         <v>43973</v>
       </c>
-      <c r="E144" s="1">
+      <c r="F144" s="1">
         <v>14600</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>1446</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>3342</v>
       </c>
-      <c r="H144" s="1">
-        <v>7596</v>
-      </c>
       <c r="I144" s="1">
+        <v>1553.9738733873401</v>
+      </c>
+      <c r="J144" s="1">
         <v>8036</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
         <v>149</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>157</v>
       </c>
-      <c r="D145" s="2">
+      <c r="E145" s="2">
         <v>43974</v>
       </c>
-      <c r="E145" s="1">
+      <c r="F145" s="1">
         <v>15229</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>1465</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>3366</v>
       </c>
-      <c r="H145" s="1">
-        <v>8036</v>
-      </c>
       <c r="I145" s="1">
+        <v>1565.72072607261</v>
+      </c>
+      <c r="J145" s="1">
         <v>8482</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
         <v>149</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>158</v>
       </c>
-      <c r="D146" s="2">
+      <c r="E146" s="2">
         <v>43975</v>
       </c>
-      <c r="E146" s="1">
+      <c r="F146" s="1">
         <v>15841</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>1476</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>3391</v>
       </c>
-      <c r="H146" s="1">
-        <v>8482</v>
-      </c>
       <c r="I146" s="1">
+        <v>1577.4675787578799</v>
+      </c>
+      <c r="J146" s="1">
         <v>8986</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
         <v>149</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>159</v>
       </c>
-      <c r="D147" s="2">
+      <c r="E147" s="2">
         <v>43976</v>
       </c>
-      <c r="E147" s="1">
+      <c r="F147" s="1">
         <v>16344</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>1495</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>3415</v>
       </c>
-      <c r="H147" s="1">
-        <v>8986</v>
-      </c>
       <c r="I147" s="1">
+        <v>1589.21443144315</v>
+      </c>
+      <c r="J147" s="1">
         <v>9546</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
         <v>149</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>160</v>
       </c>
-      <c r="D148" s="2">
+      <c r="E148" s="2">
         <v>43977</v>
       </c>
-      <c r="E148" s="1">
+      <c r="F148" s="1">
         <v>16800</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>1506</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>3439</v>
       </c>
-      <c r="H148" s="1">
-        <v>9546</v>
-      </c>
       <c r="I148" s="1">
+        <v>1600.9612841284099</v>
+      </c>
+      <c r="J148" s="1">
         <v>9969</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
         <v>149</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>161</v>
       </c>
-      <c r="D149" s="2">
+      <c r="E149" s="2">
         <v>43978</v>
       </c>
-      <c r="E149" s="1">
+      <c r="F149" s="1">
         <v>17290</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>1515</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>3463</v>
       </c>
-      <c r="H149" s="1">
-        <v>9969</v>
-      </c>
       <c r="I149" s="1">
+        <v>1612.7081368136801</v>
+      </c>
+      <c r="J149" s="1">
         <v>10551</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
         <v>149</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>162</v>
       </c>
-      <c r="D150" s="2">
+      <c r="E150" s="2">
         <v>43979</v>
       </c>
-      <c r="E150" s="1">
+      <c r="F150" s="1">
         <v>17820</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>1533</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>3487</v>
       </c>
-      <c r="H150" s="1">
-        <v>10551</v>
-      </c>
       <c r="I150" s="1">
+        <v>1624.45498949895</v>
+      </c>
+      <c r="J150" s="1">
         <v>11114</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
         <v>149</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>163</v>
       </c>
-      <c r="D151" s="2">
+      <c r="E151" s="2">
         <v>43980</v>
       </c>
-      <c r="E151" s="1">
+      <c r="F151" s="1">
         <v>18187</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>1542</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>3511</v>
       </c>
-      <c r="H151" s="1">
-        <v>11114</v>
-      </c>
       <c r="I151" s="1">
+        <v>1636.2018421842199</v>
+      </c>
+      <c r="J151" s="1">
         <v>11534</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
         <v>149</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>164</v>
       </c>
-      <c r="D152" s="2">
+      <c r="E152" s="2">
         <v>43981</v>
       </c>
-      <c r="E152" s="1">
+      <c r="F152" s="1">
         <v>18975</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>1548</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>3536</v>
       </c>
-      <c r="H152" s="1">
-        <v>11534</v>
-      </c>
       <c r="I152" s="1">
+        <v>1647.9486948694901</v>
+      </c>
+      <c r="J152" s="1">
         <v>11811</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
         <v>149</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>165</v>
       </c>
-      <c r="D153" s="2">
+      <c r="E153" s="2">
         <v>43982</v>
       </c>
-      <c r="E153" s="1">
+      <c r="F153" s="1">
         <v>19402</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>1567</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>3560</v>
       </c>
-      <c r="H153" s="1">
-        <v>11811</v>
-      </c>
       <c r="I153" s="1">
+        <v>1659.69554755476</v>
+      </c>
+      <c r="J153" s="1">
         <v>12361</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" t="s">
         <v>4</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>149</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>166</v>
       </c>
-      <c r="D154" s="2">
+      <c r="E154" s="2">
         <v>43983</v>
       </c>
-      <c r="E154" s="1">
+      <c r="F154" s="1">
         <v>19837</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>1575</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>3584</v>
       </c>
-      <c r="H154" s="1">
+      <c r="I154" s="1">
         <v>12361</v>
       </c>
-      <c r="I154" s="1">
+      <c r="J154" s="1">
         <v>13129</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" t="s">
         <v>4</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>149</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>167</v>
       </c>
-      <c r="D155" s="2">
+      <c r="E155" s="2">
         <v>43984</v>
       </c>
-      <c r="E155" s="1">
+      <c r="F155" s="1">
         <v>20417</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>1583</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>3608</v>
       </c>
-      <c r="H155" s="1">
+      <c r="I155" s="1">
         <v>13129</v>
       </c>
-      <c r="I155" s="1">
+      <c r="J155" s="1">
         <v>13669</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" t="s">
         <v>4</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>149</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>168</v>
       </c>
-      <c r="D156" s="2">
+      <c r="E156" s="2">
         <v>43985</v>
       </c>
-      <c r="E156" s="1">
+      <c r="F156" s="1">
         <v>21070</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>1593</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>3632</v>
       </c>
-      <c r="H156" s="1">
+      <c r="I156" s="1">
         <v>13669</v>
       </c>
-      <c r="I156" s="1">
+      <c r="J156" s="1">
         <v>14600</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" t="s">
         <v>4</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>149</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>169</v>
       </c>
-      <c r="D157" s="2">
+      <c r="E157" s="2">
         <v>43986</v>
       </c>
-      <c r="E157" s="1">
+      <c r="F157" s="1">
         <v>22081</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>1608</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>3656</v>
       </c>
-      <c r="H157" s="1">
+      <c r="I157" s="1">
         <v>14600</v>
       </c>
-      <c r="I157" s="1">
+      <c r="J157" s="1">
         <v>15229</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>101</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s">
         <v>4</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>149</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>170</v>
       </c>
-      <c r="D158" s="2">
+      <c r="E158" s="2">
         <v>43987</v>
       </c>
-      <c r="E158" s="1">
+      <c r="F158" s="1">
         <v>22802</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>1619</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>3681</v>
       </c>
-      <c r="H158" s="1">
+      <c r="I158" s="1">
         <v>15229</v>
       </c>
-      <c r="I158" s="1">
+      <c r="J158" s="1">
         <v>15841</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" t="s">
         <v>4</v>
-      </c>
-      <c r="B159" t="s">
-        <v>171</v>
       </c>
       <c r="C159" t="s">
         <v>171</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" t="s">
+        <v>171</v>
+      </c>
+      <c r="E159" s="2">
         <v>43988</v>
       </c>
-      <c r="E159" s="1">
+      <c r="F159" s="1">
         <v>23286</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>1632</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>3705</v>
       </c>
-      <c r="H159" s="1">
+      <c r="I159" s="1">
         <v>15841</v>
       </c>
-      <c r="I159" s="1">
+      <c r="J159" s="1">
         <v>16344</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>85</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L159" s="3"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" t="s">
         <v>4</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>171</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>172</v>
       </c>
-      <c r="D160" s="2">
+      <c r="E160" s="2">
         <v>43989</v>
       </c>
-      <c r="E160" s="1">
+      <c r="F160" s="1">
         <v>23872</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>1643</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>3729</v>
       </c>
-      <c r="H160" s="1">
+      <c r="I160" s="1">
         <v>16344</v>
       </c>
-      <c r="I160" s="1">
+      <c r="J160" s="1">
         <v>16800</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" t="s">
         <v>4</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>171</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>173</v>
       </c>
-      <c r="D161" s="2">
+      <c r="E161" s="2">
         <v>43990</v>
       </c>
-      <c r="E161" s="1">
+      <c r="F161" s="1">
         <v>24508</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>1654</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>3753</v>
       </c>
-      <c r="H161" s="1">
+      <c r="I161" s="1">
         <v>16800</v>
       </c>
-      <c r="I161" s="1">
+      <c r="J161" s="1">
         <v>17290</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" t="s">
         <v>4</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>171</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>174</v>
       </c>
-      <c r="D162" s="2">
+      <c r="E162" s="2">
         <v>43991</v>
       </c>
-      <c r="E162" s="1">
+      <c r="F162" s="1">
         <v>25057</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>1683</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>3777</v>
       </c>
-      <c r="H162" s="1">
+      <c r="I162" s="6">
         <v>17290</v>
       </c>
-      <c r="I162" s="1">
+      <c r="J162" s="1">
         <v>17820</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" t="s">
         <v>4</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>171</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>175</v>
       </c>
-      <c r="D163" s="2">
+      <c r="E163" s="2">
         <v>43992</v>
       </c>
-      <c r="E163" s="1">
+      <c r="F163" s="1">
         <v>26129</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>1703</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>3801</v>
       </c>
-      <c r="H163" s="1">
+      <c r="I163" s="1">
         <v>17820</v>
       </c>
-      <c r="I163" s="1">
+      <c r="J163" s="1">
         <v>18187</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>63</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" t="s">
         <v>4</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>171</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>176</v>
       </c>
-      <c r="D164" s="2">
+      <c r="E164" s="2">
         <v>43993</v>
       </c>
-      <c r="E164" s="1">
+      <c r="F164" s="1">
         <v>26931</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>1747</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>3825</v>
       </c>
-      <c r="H164" s="1">
+      <c r="I164" s="1">
         <v>18187</v>
       </c>
-      <c r="I164" s="1">
+      <c r="J164" s="1">
         <v>18975</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <v>88</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" t="s">
         <v>4</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>171</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>177</v>
       </c>
-      <c r="D165" s="2">
+      <c r="E165" s="2">
         <v>43994</v>
       </c>
-      <c r="E165" s="1">
+      <c r="F165" s="1">
         <v>5</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>1803</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>3850</v>
       </c>
-      <c r="H165" s="1">
+      <c r="I165" s="1">
         <v>18975</v>
       </c>
-      <c r="I165" s="1">
+      <c r="J165" s="1">
         <v>19402</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" t="s">
         <v>4</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>171</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>178</v>
       </c>
-      <c r="D166" s="2">
+      <c r="E166" s="2">
         <v>43995</v>
       </c>
-      <c r="E166" s="1">
+      <c r="F166" s="1">
         <v>9</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>1827</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>3874</v>
       </c>
-      <c r="H166" s="1">
+      <c r="I166" s="1">
         <v>19402</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>1842</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <v>75</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" t="s">
         <v>4</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>171</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>179</v>
       </c>
-      <c r="D167" s="2">
+      <c r="E167" s="2">
         <v>43996</v>
       </c>
-      <c r="E167" s="1">
+      <c r="F167" s="1">
         <v>15</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>1842</v>
-      </c>
-      <c r="G167">
-        <v>3898</v>
       </c>
       <c r="H167">
         <v>3898</v>
       </c>
       <c r="I167">
+        <v>3898</v>
+      </c>
+      <c r="J167">
         <v>1858</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>72</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" t="s">
         <v>4</v>
-      </c>
-      <c r="B168" t="s">
-        <v>180</v>
       </c>
       <c r="C168" t="s">
         <v>180</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" t="s">
+        <v>180</v>
+      </c>
+      <c r="E168" s="2">
         <v>43997</v>
       </c>
-      <c r="E168" s="1">
+      <c r="F168" s="1">
         <v>659</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>1858</v>
-      </c>
-      <c r="G168">
-        <v>3922</v>
       </c>
       <c r="H168">
         <v>3922</v>
       </c>
       <c r="I168">
+        <v>3922</v>
+      </c>
+      <c r="J168">
         <v>1873</v>
       </c>
-      <c r="J168">
+      <c r="K168">
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" t="s">
         <v>4</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>180</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>17</v>
       </c>
-      <c r="D169" s="2">
+      <c r="E169" s="2">
         <v>43998</v>
       </c>
-      <c r="E169" s="1">
+      <c r="F169" s="1">
         <v>25</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>1873</v>
-      </c>
-      <c r="G169">
-        <v>3946</v>
       </c>
       <c r="H169">
         <v>3946</v>
       </c>
       <c r="I169">
+        <v>3946</v>
+      </c>
+      <c r="J169">
         <v>1888</v>
       </c>
-      <c r="J169">
+      <c r="K169">
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" t="s">
         <v>4</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>180</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>181</v>
       </c>
-      <c r="D170" s="2">
+      <c r="E170" s="2">
         <v>43999</v>
       </c>
-      <c r="E170" s="1">
+      <c r="F170" s="1">
         <v>36</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>1888</v>
-      </c>
-      <c r="G170">
-        <v>3970</v>
       </c>
       <c r="H170">
         <v>3970</v>
       </c>
       <c r="I170">
+        <v>3970</v>
+      </c>
+      <c r="J170">
         <v>1924</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <v>72</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" t="s">
         <v>4</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>180</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>182</v>
       </c>
-      <c r="D171" s="2">
+      <c r="E171" s="2">
         <v>44000</v>
       </c>
-      <c r="E171" s="1">
+      <c r="F171" s="1">
         <v>12</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>1924</v>
-      </c>
-      <c r="G171">
-        <v>3995</v>
       </c>
       <c r="H171">
         <v>3995</v>
       </c>
       <c r="I171">
+        <v>3995</v>
+      </c>
+      <c r="J171">
         <v>363</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172" t="s">
         <v>4</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>180</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>183</v>
       </c>
-      <c r="D172" s="2">
+      <c r="E172" s="2">
         <v>44001</v>
       </c>
-      <c r="E172" s="1">
+      <c r="F172" s="1">
         <v>26</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>363</v>
-      </c>
-      <c r="G172">
-        <v>4019</v>
       </c>
       <c r="H172">
         <v>4019</v>
       </c>
       <c r="I172">
+        <v>4019</v>
+      </c>
+      <c r="J172">
         <v>395</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" t="s">
         <v>4</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>180</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>184</v>
       </c>
-      <c r="D173" s="2">
+      <c r="E173" s="2">
         <v>44002</v>
       </c>
-      <c r="E173" s="1">
+      <c r="F173" s="1">
         <v>59</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>395</v>
-      </c>
-      <c r="G173">
-        <v>4043</v>
       </c>
       <c r="H173">
         <v>4043</v>
       </c>
       <c r="I173">
+        <v>4043</v>
+      </c>
+      <c r="J173">
         <v>405</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" t="s">
         <v>4</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>180</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>185</v>
       </c>
-      <c r="D174" s="2">
+      <c r="E174" s="2">
         <v>44003</v>
       </c>
-      <c r="E174" s="1">
+      <c r="F174" s="1">
         <v>58</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>405</v>
-      </c>
-      <c r="G174">
-        <v>4067</v>
       </c>
       <c r="H174">
         <v>4067</v>
       </c>
       <c r="I174">
+        <v>4067</v>
+      </c>
+      <c r="J174">
         <v>417</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" t="s">
         <v>4</v>
       </c>
-      <c r="B175" t="s">
-        <v>180</v>
-      </c>
       <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
         <v>186</v>
       </c>
-      <c r="D175" s="2">
+      <c r="E175" s="2">
         <v>44004</v>
       </c>
-      <c r="E175" s="1">
+      <c r="F175" s="1">
         <v>87</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>417</v>
-      </c>
-      <c r="G175">
-        <v>4091</v>
       </c>
       <c r="H175">
         <v>4091</v>
       </c>
       <c r="I175">
+        <v>4091</v>
+      </c>
+      <c r="J175">
         <v>426</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" t="s">
         <v>4</v>
       </c>
-      <c r="B176" t="s">
-        <v>180</v>
-      </c>
       <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
         <v>187</v>
       </c>
-      <c r="D176" s="2">
+      <c r="E176" s="2">
         <v>44005</v>
       </c>
-      <c r="E176" s="1">
+      <c r="F176" s="1">
         <v>1256</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>426</v>
-      </c>
-      <c r="G176">
-        <v>4115</v>
       </c>
       <c r="H176">
         <v>4115</v>
       </c>
       <c r="I176">
+        <v>4115</v>
+      </c>
+      <c r="J176">
         <v>471</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" t="s">
         <v>4</v>
       </c>
-      <c r="B177" t="s">
-        <v>180</v>
-      </c>
       <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
         <v>188</v>
       </c>
-      <c r="D177" s="2">
+      <c r="E177" s="2">
         <v>44006</v>
       </c>
-      <c r="E177" s="1">
+      <c r="F177" s="1">
         <v>157</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>471</v>
-      </c>
-      <c r="G177">
-        <v>4140</v>
       </c>
       <c r="H177">
         <v>4140</v>
       </c>
       <c r="I177">
+        <v>4140</v>
+      </c>
+      <c r="J177">
         <v>479</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" t="s">
         <v>4</v>
       </c>
-      <c r="B178" t="s">
-        <v>180</v>
-      </c>
       <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
         <v>189</v>
       </c>
-      <c r="D178" s="2">
+      <c r="E178" s="2">
         <v>44007</v>
       </c>
-      <c r="E178" s="1">
+      <c r="F178" s="1">
         <v>68</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>479</v>
-      </c>
-      <c r="G178">
-        <v>4164</v>
       </c>
       <c r="H178">
         <v>4164</v>
       </c>
       <c r="I178">
+        <v>4164</v>
+      </c>
+      <c r="J178">
         <v>479</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" t="s">
         <v>4</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>180</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>190</v>
       </c>
-      <c r="D179" s="2">
+      <c r="E179" s="2">
         <v>44008</v>
       </c>
-      <c r="E179" s="1">
+      <c r="F179" s="1">
         <v>187</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>479</v>
-      </c>
-      <c r="G179">
-        <v>4188</v>
       </c>
       <c r="H179">
         <v>4188</v>
       </c>
       <c r="I179">
+        <v>4188</v>
+      </c>
+      <c r="J179">
         <v>485</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" t="s">
         <v>4</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>180</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>191</v>
       </c>
-      <c r="D180" s="2">
+      <c r="E180" s="2">
         <v>44009</v>
       </c>
-      <c r="E180" s="1">
+      <c r="F180" s="1">
         <v>1569</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>485</v>
-      </c>
-      <c r="G180">
-        <v>4212</v>
       </c>
       <c r="H180">
         <v>4212</v>
       </c>
       <c r="I180">
+        <v>4212</v>
+      </c>
+      <c r="J180">
         <v>497</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" t="s">
         <v>4</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>180</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>192</v>
       </c>
-      <c r="D181" s="2">
+      <c r="E181" s="2">
         <v>44010</v>
       </c>
-      <c r="E181" s="1">
+      <c r="F181" s="1">
         <v>186</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>497</v>
-      </c>
-      <c r="G181">
-        <v>4236</v>
       </c>
       <c r="H181">
         <v>4236</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181">
+        <v>4236</v>
+      </c>
+      <c r="J181" t="s">
         <v>194</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J182" s="3"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J183" s="3"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J184" s="3"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J185" s="3"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J186" s="3"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J187" s="3"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J188" s="3"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J189" s="3"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J190" s="3"/>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H186" s="3"/>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K190" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/Consulta2.xlsx
+++ b/backend/Consulta2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Espina\Desktop\Compiladores 2\OLC2-Coronavirus-Data-Analysis-With-Machine-Learning\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703C7811-5CFB-42A8-9F30-F7B088F2A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4E6F5C-A160-44C2-A765-3623AAF909E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{509D8F0D-7B5E-44D0-BC14-972074DCFF11}"/>
   </bookViews>
@@ -616,9 +616,6 @@
     <t>Vacunados</t>
   </si>
   <si>
-    <t>Femenino</t>
-  </si>
-  <si>
     <t>Edad</t>
   </si>
   <si>
@@ -635,13 +632,16 @@
   </si>
   <si>
     <t>Europa</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,12 +656,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD19A66"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -697,10 +691,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0982241F-302C-4A7E-BFE3-35BF9F97BC01}">
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1055,18 +1047,21 @@
         <v>193</v>
       </c>
       <c r="I1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" t="s">
         <v>196</v>
       </c>
-      <c r="J1" t="s">
-        <v>197</v>
-      </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1081,7 +1076,7 @@
         <v>43831</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1098,10 +1093,13 @@
       <c r="K2">
         <v>5</v>
       </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1109,7 +1107,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2">
@@ -1133,10 +1131,13 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>255</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1144,7 +1145,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2">
@@ -1168,10 +1169,13 @@
       <c r="K4">
         <v>5</v>
       </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1179,7 +1183,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2">
@@ -1203,10 +1207,13 @@
       <c r="K5">
         <v>2</v>
       </c>
+      <c r="L5">
+        <v>350</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1238,11 +1245,14 @@
       <c r="K6">
         <v>12</v>
       </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1274,10 +1284,13 @@
       <c r="K7">
         <v>65</v>
       </c>
+      <c r="L7">
+        <v>450</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1309,10 +1322,13 @@
       <c r="K8">
         <v>12</v>
       </c>
+      <c r="L8">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1344,10 +1360,13 @@
       <c r="K9">
         <v>74</v>
       </c>
+      <c r="L9">
+        <v>395</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1379,10 +1398,13 @@
       <c r="K10">
         <v>85</v>
       </c>
+      <c r="L10">
+        <v>419</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1414,10 +1436,13 @@
       <c r="K11">
         <v>96</v>
       </c>
+      <c r="L11">
+        <v>443</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1449,10 +1474,13 @@
       <c r="K12">
         <v>99</v>
       </c>
+      <c r="L12">
+        <v>468</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1484,10 +1512,13 @@
       <c r="K13">
         <v>100</v>
       </c>
+      <c r="L13">
+        <v>492</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1519,10 +1550,13 @@
       <c r="K14">
         <v>45</v>
       </c>
+      <c r="L14">
+        <v>516</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1554,10 +1588,13 @@
       <c r="K15">
         <v>52</v>
       </c>
+      <c r="L15">
+        <v>540</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1589,10 +1626,13 @@
       <c r="K16">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1624,10 +1664,13 @@
       <c r="K17">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1659,10 +1702,13 @@
       <c r="K18">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1694,10 +1740,13 @@
       <c r="K19">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1729,10 +1778,13 @@
       <c r="K20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1764,10 +1816,13 @@
       <c r="K21">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1799,10 +1854,13 @@
       <c r="K22">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1834,10 +1892,13 @@
       <c r="K23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1869,10 +1930,13 @@
       <c r="K24">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -1904,10 +1968,13 @@
       <c r="K25">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1939,10 +2006,13 @@
       <c r="K26">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1974,10 +2044,13 @@
       <c r="K27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -2009,10 +2082,13 @@
       <c r="K28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -2044,10 +2120,13 @@
       <c r="K29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -2079,10 +2158,13 @@
       <c r="K30">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -2114,10 +2196,13 @@
       <c r="K31">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -2149,10 +2234,13 @@
       <c r="K32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -2184,10 +2272,13 @@
       <c r="K33">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -2219,10 +2310,13 @@
       <c r="K34">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -2254,10 +2348,13 @@
       <c r="K35">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -2289,10 +2386,13 @@
       <c r="K36">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -2324,10 +2424,13 @@
       <c r="K37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -2359,10 +2462,13 @@
       <c r="K38">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -2394,10 +2500,13 @@
       <c r="K39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -2429,10 +2538,13 @@
       <c r="K40">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -2464,10 +2576,13 @@
       <c r="K41">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -2499,10 +2614,13 @@
       <c r="K42">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -2534,10 +2652,13 @@
       <c r="K43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -2569,10 +2690,13 @@
       <c r="K44">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -2604,10 +2728,13 @@
       <c r="K45">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -2639,10 +2766,13 @@
       <c r="K46" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -2674,10 +2804,13 @@
       <c r="K47">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -2709,10 +2842,13 @@
       <c r="K48">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2744,10 +2880,13 @@
       <c r="K49">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -2779,10 +2918,13 @@
       <c r="K50">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2814,10 +2956,13 @@
       <c r="K51">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2849,10 +2994,13 @@
       <c r="K52">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -2884,10 +3032,13 @@
       <c r="K53">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2919,10 +3070,13 @@
       <c r="K54">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2954,10 +3108,13 @@
       <c r="K55">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2989,10 +3146,13 @@
       <c r="K56">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -3024,10 +3184,13 @@
       <c r="K57">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -3059,10 +3222,13 @@
       <c r="K58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -3094,10 +3260,13 @@
       <c r="K59">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -3129,10 +3298,13 @@
       <c r="K60">
         <v>27</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -3164,10 +3336,13 @@
       <c r="K61">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -3199,10 +3374,13 @@
       <c r="K62">
         <v>28</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -3234,10 +3412,13 @@
       <c r="K63">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -3269,10 +3450,13 @@
       <c r="K64">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -3304,10 +3488,13 @@
       <c r="K65">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3339,10 +3526,13 @@
       <c r="K66">
         <v>28</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -3374,10 +3564,13 @@
       <c r="K67">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -3409,10 +3602,13 @@
       <c r="K68">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -3444,10 +3640,13 @@
       <c r="K69">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3479,10 +3678,13 @@
       <c r="K70">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -3514,10 +3716,13 @@
       <c r="K71">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3549,10 +3754,13 @@
       <c r="K72">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -3584,10 +3792,13 @@
       <c r="K73">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -3619,10 +3830,13 @@
       <c r="K74">
         <v>32</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -3654,10 +3868,13 @@
       <c r="K75">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -3689,10 +3906,13 @@
       <c r="K76">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -3724,10 +3944,13 @@
       <c r="K77">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -3759,10 +3982,13 @@
       <c r="K78">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -3794,10 +4020,13 @@
       <c r="K79">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -3829,10 +4058,13 @@
       <c r="K80">
         <v>96</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -3864,10 +4096,13 @@
       <c r="K81">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -3899,10 +4134,13 @@
       <c r="K82">
         <v>47</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -3934,10 +4172,13 @@
       <c r="K83">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -3969,10 +4210,13 @@
       <c r="K84">
         <v>65</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -4004,10 +4248,13 @@
       <c r="K85">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -4039,10 +4286,13 @@
       <c r="K86">
         <v>15</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -4074,10 +4324,13 @@
       <c r="K87">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -4109,10 +4362,13 @@
       <c r="K88">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -4144,10 +4400,13 @@
       <c r="K89">
         <v>75</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -4179,10 +4438,13 @@
       <c r="K90">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -4214,10 +4476,13 @@
       <c r="K91">
         <v>36</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -4249,10 +4514,13 @@
       <c r="K92">
         <v>96</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -4284,10 +4552,13 @@
       <c r="K93">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -4319,10 +4590,13 @@
       <c r="K94">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -4354,10 +4628,13 @@
       <c r="K95">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -4389,10 +4666,13 @@
       <c r="K96">
         <v>62</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -4424,10 +4704,13 @@
       <c r="K97">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -4459,10 +4742,13 @@
       <c r="K98">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -4494,10 +4780,13 @@
       <c r="K99">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -4529,10 +4818,13 @@
       <c r="K100">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -4564,10 +4856,13 @@
       <c r="K101">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -4599,10 +4894,13 @@
       <c r="K102">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -4634,10 +4932,13 @@
       <c r="K103">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -4669,10 +4970,13 @@
       <c r="K104">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -4704,10 +5008,13 @@
       <c r="K105">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -4739,10 +5046,13 @@
       <c r="K106">
         <v>26</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -4774,10 +5084,13 @@
       <c r="K107">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -4809,10 +5122,13 @@
       <c r="K108">
         <v>65</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
@@ -4844,10 +5160,13 @@
       <c r="K109">
         <v>98</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
@@ -4879,10 +5198,13 @@
       <c r="K110">
         <v>74</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
@@ -4914,10 +5236,13 @@
       <c r="K111">
         <v>85</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
         <v>1</v>
@@ -4949,10 +5274,13 @@
       <c r="K112">
         <v>24</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
         <v>1</v>
@@ -4984,10 +5312,13 @@
       <c r="K113">
         <v>73</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B114" t="s">
         <v>1</v>
@@ -5019,10 +5350,13 @@
       <c r="K114">
         <v>69</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115" t="s">
         <v>1</v>
@@ -5054,10 +5388,13 @@
       <c r="K115">
         <v>89</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B116" t="s">
         <v>1</v>
@@ -5089,10 +5426,13 @@
       <c r="K116">
         <v>88</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B117" t="s">
         <v>1</v>
@@ -5124,10 +5464,13 @@
       <c r="K117">
         <v>63</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B118" t="s">
         <v>1</v>
@@ -5159,10 +5502,13 @@
       <c r="K118">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B119" t="s">
         <v>1</v>
@@ -5194,10 +5540,13 @@
       <c r="K119">
         <v>25</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B120" t="s">
         <v>1</v>
@@ -5229,10 +5578,13 @@
       <c r="K120">
         <v>96</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
         <v>1</v>
@@ -5264,10 +5616,13 @@
       <c r="K121">
         <v>32</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
         <v>1</v>
@@ -5299,10 +5654,13 @@
       <c r="K122">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
         <v>1</v>
@@ -5334,10 +5692,13 @@
       <c r="K123">
         <v>65</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -5369,10 +5730,13 @@
       <c r="K124">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s">
         <v>1</v>
@@ -5404,10 +5768,13 @@
       <c r="K125">
         <v>69</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
         <v>1</v>
@@ -5439,10 +5806,13 @@
       <c r="K126">
         <v>36</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
@@ -5474,10 +5844,13 @@
       <c r="K127">
         <v>25</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
@@ -5509,10 +5882,13 @@
       <c r="K128">
         <v>25</v>
       </c>
+      <c r="L128">
+        <v>3254</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
         <v>1</v>
@@ -5544,10 +5920,13 @@
       <c r="K129">
         <v>15</v>
       </c>
+      <c r="L129">
+        <v>3278</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
         <v>1</v>
@@ -5579,10 +5958,13 @@
       <c r="K130">
         <v>74</v>
       </c>
+      <c r="L130">
+        <v>3302</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B131" t="s">
         <v>1</v>
@@ -5614,10 +5996,13 @@
       <c r="K131">
         <v>56</v>
       </c>
+      <c r="L131">
+        <v>3326</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" t="s">
         <v>1</v>
@@ -5649,10 +6034,13 @@
       <c r="K132">
         <v>96</v>
       </c>
+      <c r="L132">
+        <v>3350</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -5684,10 +6072,13 @@
       <c r="K133">
         <v>99</v>
       </c>
+      <c r="L133">
+        <v>3374</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
         <v>1</v>
@@ -5719,10 +6110,13 @@
       <c r="K134">
         <v>66</v>
       </c>
+      <c r="L134">
+        <v>3398</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
         <v>1</v>
@@ -5754,10 +6148,13 @@
       <c r="K135">
         <v>65</v>
       </c>
+      <c r="L135">
+        <v>3422</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
         <v>1</v>
@@ -5789,10 +6186,13 @@
       <c r="K136">
         <v>25</v>
       </c>
+      <c r="L136">
+        <v>3446</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B137" t="s">
         <v>1</v>
@@ -5824,10 +6224,13 @@
       <c r="K137">
         <v>32</v>
       </c>
+      <c r="L137">
+        <v>3470</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B138" t="s">
         <v>1</v>
@@ -5859,10 +6262,13 @@
       <c r="K138">
         <v>15</v>
       </c>
+      <c r="L138">
+        <v>3494</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B139" t="s">
         <v>1</v>
@@ -5894,10 +6300,13 @@
       <c r="K139">
         <v>48</v>
       </c>
+      <c r="L139">
+        <v>3518</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
         <v>1</v>
@@ -5929,10 +6338,13 @@
       <c r="K140">
         <v>17</v>
       </c>
+      <c r="L140">
+        <v>3542</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
         <v>1</v>
@@ -5964,10 +6376,13 @@
       <c r="K141">
         <v>19</v>
       </c>
+      <c r="L141">
+        <v>3566</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
         <v>1</v>
@@ -5999,11 +6414,13 @@
       <c r="K142">
         <v>25</v>
       </c>
-      <c r="L142" s="4"/>
+      <c r="L142">
+        <v>3590</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s">
         <v>1</v>
@@ -6035,10 +6452,13 @@
       <c r="K143">
         <v>23</v>
       </c>
+      <c r="L143">
+        <v>3614</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
@@ -6070,10 +6490,13 @@
       <c r="K144">
         <v>36</v>
       </c>
+      <c r="L144">
+        <v>3638</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -6105,10 +6528,13 @@
       <c r="K145">
         <v>25</v>
       </c>
+      <c r="L145">
+        <v>3662</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
@@ -6140,10 +6566,13 @@
       <c r="K146">
         <v>19</v>
       </c>
+      <c r="L146">
+        <v>3686</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B147" t="s">
         <v>1</v>
@@ -6175,10 +6604,13 @@
       <c r="K147">
         <v>66</v>
       </c>
+      <c r="L147">
+        <v>3710</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -6210,10 +6642,13 @@
       <c r="K148">
         <v>36</v>
       </c>
+      <c r="L148">
+        <v>3734</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B149" t="s">
         <v>1</v>
@@ -6245,10 +6680,13 @@
       <c r="K149">
         <v>75</v>
       </c>
+      <c r="L149">
+        <v>3758</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -6280,10 +6718,13 @@
       <c r="K150">
         <v>78</v>
       </c>
+      <c r="L150">
+        <v>3782</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
@@ -6315,10 +6756,13 @@
       <c r="K151">
         <v>79</v>
       </c>
+      <c r="L151">
+        <v>3806</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -6350,10 +6794,13 @@
       <c r="K152">
         <v>58</v>
       </c>
+      <c r="L152">
+        <v>3830</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
@@ -6385,10 +6832,13 @@
       <c r="K153">
         <v>56</v>
       </c>
+      <c r="L153">
+        <v>3854</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -6420,10 +6870,13 @@
       <c r="K154">
         <v>69</v>
       </c>
+      <c r="L154">
+        <v>3878</v>
+      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B155" t="s">
         <v>4</v>
@@ -6455,10 +6908,13 @@
       <c r="K155">
         <v>99</v>
       </c>
+      <c r="L155">
+        <v>3902</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -6490,10 +6946,13 @@
       <c r="K156">
         <v>100</v>
       </c>
+      <c r="L156">
+        <v>3926</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -6525,10 +6984,13 @@
       <c r="K157">
         <v>101</v>
       </c>
+      <c r="L157">
+        <v>3950</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
@@ -6560,10 +7022,13 @@
       <c r="K158">
         <v>88</v>
       </c>
+      <c r="L158">
+        <v>3974</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
@@ -6595,11 +7060,13 @@
       <c r="K159">
         <v>85</v>
       </c>
-      <c r="L159" s="3"/>
+      <c r="L159">
+        <v>3998</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -6631,10 +7098,13 @@
       <c r="K160">
         <v>75</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B161" t="s">
         <v>4</v>
@@ -6666,10 +7136,13 @@
       <c r="K161">
         <v>55</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -6692,7 +7165,7 @@
       <c r="H162">
         <v>3777</v>
       </c>
-      <c r="I162" s="6">
+      <c r="I162" s="5">
         <v>17290</v>
       </c>
       <c r="J162" s="1">
@@ -6701,10 +7174,13 @@
       <c r="K162">
         <v>69</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
@@ -6736,10 +7212,13 @@
       <c r="K163">
         <v>63</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -6771,10 +7250,13 @@
       <c r="K164">
         <v>88</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
@@ -6806,10 +7288,13 @@
       <c r="K165">
         <v>74</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
@@ -6841,10 +7326,13 @@
       <c r="K166">
         <v>75</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
@@ -6876,10 +7364,13 @@
       <c r="K167">
         <v>72</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -6911,10 +7402,13 @@
       <c r="K168">
         <v>76</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
@@ -6946,10 +7440,13 @@
       <c r="K169">
         <v>78</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
@@ -6981,10 +7478,13 @@
       <c r="K170">
         <v>72</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
@@ -7016,10 +7516,13 @@
       <c r="K171">
         <v>73</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
         <v>4</v>
@@ -7051,10 +7554,13 @@
       <c r="K172">
         <v>79</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
@@ -7086,10 +7592,13 @@
       <c r="K173">
         <v>75</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
@@ -7121,10 +7630,13 @@
       <c r="K174">
         <v>72</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
@@ -7156,10 +7668,13 @@
       <c r="K175">
         <v>77</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
@@ -7191,10 +7706,14 @@
       <c r="K176">
         <v>66</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <v>4406</v>
+      </c>
+      <c r="M176" s="6"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
@@ -7226,10 +7745,13 @@
       <c r="K177">
         <v>55</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
@@ -7261,10 +7783,13 @@
       <c r="K178">
         <v>59</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B179" t="s">
         <v>4</v>
@@ -7296,10 +7821,13 @@
       <c r="K179">
         <v>53</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B180" t="s">
         <v>4</v>
@@ -7331,10 +7859,13 @@
       <c r="K180">
         <v>25</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B181" t="s">
         <v>4</v>
@@ -7360,39 +7891,42 @@
       <c r="I181">
         <v>4236</v>
       </c>
-      <c r="J181" t="s">
-        <v>194</v>
+      <c r="J181">
+        <v>600</v>
       </c>
       <c r="K181">
         <v>12</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H186" s="3"/>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K190" s="3"/>
     </row>
   </sheetData>
